--- a/Code/Results/Cases/Case_0_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_32/res_bus/vm_pu.xlsx
@@ -418,158 +418,983 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.9770322829265564</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.9865144785748292</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9861159312971651</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.9526254184861478</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.035338917298117</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.9999223485742297</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.9981649411251989</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.9977721431389701</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9647867404820258</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.001342353001901</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>0.9854975708611499</v>
+      </c>
+      <c r="D3">
+        <v>0.9938295759389353</v>
+      </c>
+      <c r="E3">
+        <v>0.9931700636229731</v>
+      </c>
+      <c r="F3">
+        <v>0.9640970347791573</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.037428459558133</v>
+      </c>
+      <c r="J3">
+        <v>1.006391548929914</v>
+      </c>
+      <c r="K3">
+        <v>1.004542022104563</v>
+      </c>
+      <c r="L3">
+        <v>1.003891087181541</v>
+      </c>
+      <c r="M3">
+        <v>0.9752108906030783</v>
+      </c>
+      <c r="N3">
+        <v>1.007820740364118</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>0.9907726998180894</v>
+      </c>
+      <c r="D4">
+        <v>0.9983933931861216</v>
+      </c>
+      <c r="E4">
+        <v>0.9975726434768105</v>
+      </c>
+      <c r="F4">
+        <v>0.9712299420482839</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.03871474510954</v>
+      </c>
+      <c r="J4">
+        <v>1.010415422748533</v>
+      </c>
+      <c r="K4">
+        <v>1.008511247290453</v>
+      </c>
+      <c r="L4">
+        <v>1.007700453108004</v>
+      </c>
+      <c r="M4">
+        <v>0.9816884629886171</v>
+      </c>
+      <c r="N4">
+        <v>1.011850328545105</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>0.9929452562202506</v>
+      </c>
+      <c r="D5">
+        <v>1.000274199087921</v>
+      </c>
+      <c r="E5">
+        <v>0.9993873561578586</v>
+      </c>
+      <c r="F5">
+        <v>0.9741646045974328</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.03924063829114</v>
+      </c>
+      <c r="J5">
+        <v>1.01207083802713</v>
+      </c>
+      <c r="K5">
+        <v>1.01014479874344</v>
+      </c>
+      <c r="L5">
+        <v>1.009268394893992</v>
+      </c>
+      <c r="M5">
+        <v>0.9843524589265363</v>
+      </c>
+      <c r="N5">
+        <v>1.013508094703276</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>0.9933074837794329</v>
+      </c>
+      <c r="D6">
+        <v>1.000587851461566</v>
+      </c>
+      <c r="E6">
+        <v>0.9996900067343365</v>
+      </c>
+      <c r="F6">
+        <v>0.9746537390372962</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.039328090602496</v>
+      </c>
+      <c r="J6">
+        <v>1.012346735539263</v>
+      </c>
+      <c r="K6">
+        <v>1.010417088287183</v>
+      </c>
+      <c r="L6">
+        <v>1.009529758542354</v>
+      </c>
+      <c r="M6">
+        <v>0.9847964165095218</v>
+      </c>
+      <c r="N6">
+        <v>1.013784384021522</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>0.9908019026953789</v>
+      </c>
+      <c r="D7">
+        <v>0.9984186697964803</v>
+      </c>
+      <c r="E7">
+        <v>0.997597030467761</v>
+      </c>
+      <c r="F7">
+        <v>0.9712694000039843</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.038721829413033</v>
+      </c>
+      <c r="J7">
+        <v>1.01043768160051</v>
+      </c>
+      <c r="K7">
+        <v>1.008533209727876</v>
+      </c>
+      <c r="L7">
+        <v>1.00772153274865</v>
+      </c>
+      <c r="M7">
+        <v>0.9817242859392297</v>
+      </c>
+      <c r="N7">
+        <v>1.011872619007204</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>0.9799372424288678</v>
+      </c>
+      <c r="D8">
+        <v>0.9890235210758375</v>
+      </c>
+      <c r="E8">
+        <v>0.9885351146343193</v>
+      </c>
+      <c r="F8">
+        <v>0.9565658274646288</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.036059277562805</v>
+      </c>
+      <c r="J8">
+        <v>1.002143873327557</v>
+      </c>
+      <c r="K8">
+        <v>1.000354257623285</v>
+      </c>
+      <c r="L8">
+        <v>0.9998726577756446</v>
+      </c>
+      <c r="M8">
+        <v>0.9683681589329673</v>
+      </c>
+      <c r="N8">
+        <v>1.003567032575191</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.959066612791129</v>
+      </c>
+      <c r="D9">
+        <v>0.9710259949008474</v>
+      </c>
+      <c r="E9">
+        <v>0.9711902205046455</v>
+      </c>
+      <c r="F9">
+        <v>0.9281501035815544</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.030817496020233</v>
+      </c>
+      <c r="J9">
+        <v>0.9861525140514031</v>
+      </c>
+      <c r="K9">
+        <v>0.9846073238728595</v>
+      </c>
+      <c r="L9">
+        <v>0.9847686757110647</v>
+      </c>
+      <c r="M9">
+        <v>0.9425274065370081</v>
+      </c>
+      <c r="N9">
+        <v>0.9875529637346303</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9437006154344935</v>
+      </c>
+      <c r="D10">
+        <v>0.9578187162183261</v>
+      </c>
+      <c r="E10">
+        <v>0.9584738857653227</v>
+      </c>
+      <c r="F10">
+        <v>0.9070373747622296</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.02687618868089</v>
+      </c>
+      <c r="J10">
+        <v>0.9743408164001774</v>
+      </c>
+      <c r="K10">
+        <v>0.9729937513090186</v>
+      </c>
+      <c r="L10">
+        <v>0.9736356912005273</v>
+      </c>
+      <c r="M10">
+        <v>0.9233157526339765</v>
+      </c>
+      <c r="N10">
+        <v>0.9757244921179192</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9366190548568095</v>
+      </c>
+      <c r="D11">
+        <v>0.9517447485919028</v>
+      </c>
+      <c r="E11">
+        <v>0.952629185823636</v>
+      </c>
+      <c r="F11">
+        <v>0.8972392768585065</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.025041609416332</v>
+      </c>
+      <c r="J11">
+        <v>0.9688888120489139</v>
+      </c>
+      <c r="K11">
+        <v>0.967637912363439</v>
+      </c>
+      <c r="L11">
+        <v>0.9685033743617824</v>
+      </c>
+      <c r="M11">
+        <v>0.9143994336043594</v>
+      </c>
+      <c r="N11">
+        <v>0.9702647452951234</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9339154130010683</v>
+      </c>
+      <c r="D12">
+        <v>0.949427944026572</v>
+      </c>
+      <c r="E12">
+        <v>0.950400420109252</v>
+      </c>
+      <c r="F12">
+        <v>0.8934857699031779</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.024338588697571</v>
+      </c>
+      <c r="J12">
+        <v>0.9668060863737369</v>
+      </c>
+      <c r="K12">
+        <v>0.9655926883746666</v>
+      </c>
+      <c r="L12">
+        <v>0.9665438285839789</v>
+      </c>
+      <c r="M12">
+        <v>0.9109839186537558</v>
+      </c>
+      <c r="N12">
+        <v>0.9681790619105958</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9344988315965671</v>
+      </c>
+      <c r="D13">
+        <v>0.9499277858256555</v>
+      </c>
+      <c r="E13">
+        <v>0.9508812401395996</v>
+      </c>
+      <c r="F13">
+        <v>0.8942963590143646</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.024490408574162</v>
+      </c>
+      <c r="J13">
+        <v>0.9672555720588741</v>
+      </c>
+      <c r="K13">
+        <v>0.9660340450555776</v>
+      </c>
+      <c r="L13">
+        <v>0.9669666807989519</v>
+      </c>
+      <c r="M13">
+        <v>0.9117215028568392</v>
+      </c>
+      <c r="N13">
+        <v>0.9686291859169625</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.9363971233731169</v>
+      </c>
+      <c r="D14">
+        <v>0.9515545260687269</v>
+      </c>
+      <c r="E14">
+        <v>0.9524461794521411</v>
+      </c>
+      <c r="F14">
+        <v>0.8969314398365708</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.024983953016115</v>
+      </c>
+      <c r="J14">
+        <v>0.9687178736937707</v>
+      </c>
+      <c r="K14">
+        <v>0.9674700360924644</v>
+      </c>
+      <c r="L14">
+        <v>0.9683425239761788</v>
+      </c>
+      <c r="M14">
+        <v>0.9141193106672273</v>
+      </c>
+      <c r="N14">
+        <v>0.9700935641879093</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9375567200178916</v>
+      </c>
+      <c r="D15">
+        <v>0.9525485313923815</v>
+      </c>
+      <c r="E15">
+        <v>0.9534025011406795</v>
+      </c>
+      <c r="F15">
+        <v>0.8985393629540652</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.025285104286763</v>
+      </c>
+      <c r="J15">
+        <v>0.9696109808095309</v>
+      </c>
+      <c r="K15">
+        <v>0.9683471759946805</v>
+      </c>
+      <c r="L15">
+        <v>0.969182967491644</v>
+      </c>
+      <c r="M15">
+        <v>0.9155824846417371</v>
+      </c>
+      <c r="N15">
+        <v>0.9709879396182145</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9441608566524995</v>
+      </c>
+      <c r="D16">
+        <v>0.9582137530125425</v>
+      </c>
+      <c r="E16">
+        <v>0.958854088311197</v>
+      </c>
+      <c r="F16">
+        <v>0.9076725744928245</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.026995057676793</v>
+      </c>
+      <c r="J16">
+        <v>0.9746949803363004</v>
+      </c>
+      <c r="K16">
+        <v>0.9733417695555585</v>
+      </c>
+      <c r="L16">
+        <v>0.9739692269714701</v>
+      </c>
+      <c r="M16">
+        <v>0.9238937986355165</v>
+      </c>
+      <c r="N16">
+        <v>0.976079159007455</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9481831172256691</v>
+      </c>
+      <c r="D17">
+        <v>0.9616676085949941</v>
+      </c>
+      <c r="E17">
+        <v>0.9621786423957187</v>
+      </c>
+      <c r="F17">
+        <v>0.913216038844829</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.028031890691605</v>
+      </c>
+      <c r="J17">
+        <v>0.9777892420210149</v>
+      </c>
+      <c r="K17">
+        <v>0.9763828693323369</v>
+      </c>
+      <c r="L17">
+        <v>0.9768839887526077</v>
+      </c>
+      <c r="M17">
+        <v>0.9289384468596749</v>
+      </c>
+      <c r="N17">
+        <v>0.9791778148986782</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9504886295459012</v>
+      </c>
+      <c r="D18">
+        <v>0.9636484833368714</v>
+      </c>
+      <c r="E18">
+        <v>0.9640856788391785</v>
+      </c>
+      <c r="F18">
+        <v>0.9163873458880959</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.028624492254433</v>
+      </c>
+      <c r="J18">
+        <v>0.9795620460670137</v>
+      </c>
+      <c r="K18">
+        <v>0.9781256486805451</v>
+      </c>
+      <c r="L18">
+        <v>0.978554539547144</v>
+      </c>
+      <c r="M18">
+        <v>0.9318243267301787</v>
+      </c>
+      <c r="N18">
+        <v>0.9809531365297662</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9512681049847932</v>
+      </c>
+      <c r="D19">
+        <v>0.9643183926213477</v>
+      </c>
+      <c r="E19">
+        <v>0.9647306693139542</v>
+      </c>
+      <c r="F19">
+        <v>0.9174585617602359</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1.028824554405996</v>
+      </c>
+      <c r="J19">
+        <v>0.9801612815737629</v>
+      </c>
+      <c r="K19">
+        <v>0.9787148074265919</v>
+      </c>
+      <c r="L19">
+        <v>0.9791193092016343</v>
+      </c>
+      <c r="M19">
+        <v>0.9327991122283169</v>
+      </c>
+      <c r="N19">
+        <v>0.981553223019668</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9477558253950161</v>
+      </c>
+      <c r="D20">
+        <v>0.9613005765001069</v>
+      </c>
+      <c r="E20">
+        <v>0.9618253171549135</v>
+      </c>
+      <c r="F20">
+        <v>0.9126278019955112</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.027921922135892</v>
+      </c>
+      <c r="J20">
+        <v>0.9774606150937628</v>
+      </c>
+      <c r="K20">
+        <v>0.9760598429706732</v>
+      </c>
+      <c r="L20">
+        <v>0.9765743638194464</v>
+      </c>
+      <c r="M20">
+        <v>0.9284031461994329</v>
+      </c>
+      <c r="N20">
+        <v>0.9788487212834955</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9358402266368043</v>
+      </c>
+      <c r="D21">
+        <v>0.9510772326126665</v>
+      </c>
+      <c r="E21">
+        <v>0.9519870019672394</v>
+      </c>
+      <c r="F21">
+        <v>0.8961587649942706</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.024839233450085</v>
+      </c>
+      <c r="J21">
+        <v>0.968288915437135</v>
+      </c>
+      <c r="K21">
+        <v>0.9670487744223714</v>
+      </c>
+      <c r="L21">
+        <v>0.9679388980814185</v>
+      </c>
+      <c r="M21">
+        <v>0.9134162026887793</v>
+      </c>
+      <c r="N21">
+        <v>0.9696639967613467</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9279187751133057</v>
+      </c>
+      <c r="D22">
+        <v>0.9442935922836159</v>
+      </c>
+      <c r="E22">
+        <v>0.945462348974665</v>
+      </c>
+      <c r="F22">
+        <v>0.8851336023495301</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1.022774633538614</v>
+      </c>
+      <c r="J22">
+        <v>0.9621844090047735</v>
+      </c>
+      <c r="K22">
+        <v>0.961055722528422</v>
+      </c>
+      <c r="L22">
+        <v>0.9621975715257015</v>
+      </c>
+      <c r="M22">
+        <v>0.9033845625885291</v>
+      </c>
+      <c r="N22">
+        <v>0.9635508212296547</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9321623214662929</v>
+      </c>
+      <c r="D23">
+        <v>0.9479263252213671</v>
+      </c>
+      <c r="E23">
+        <v>0.9489560383696574</v>
+      </c>
+      <c r="F23">
+        <v>0.8910479675229955</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1.023882020185921</v>
+      </c>
+      <c r="J23">
+        <v>0.9654552682074917</v>
+      </c>
+      <c r="K23">
+        <v>0.9642664172707115</v>
+      </c>
+      <c r="L23">
+        <v>0.9652732138163456</v>
+      </c>
+      <c r="M23">
+        <v>0.9087657277292919</v>
+      </c>
+      <c r="N23">
+        <v>0.9668263254276135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.947949025002863</v>
+      </c>
+      <c r="D24">
+        <v>0.9614665261133131</v>
+      </c>
+      <c r="E24">
+        <v>0.9619850683720929</v>
+      </c>
+      <c r="F24">
+        <v>0.9128937916859206</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1.027971649615046</v>
+      </c>
+      <c r="J24">
+        <v>0.9776092059199818</v>
+      </c>
+      <c r="K24">
+        <v>0.976205900118679</v>
+      </c>
+      <c r="L24">
+        <v>0.9767143609445524</v>
+      </c>
+      <c r="M24">
+        <v>0.9286451993553162</v>
+      </c>
+      <c r="N24">
+        <v>0.9789975231257316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9646937990380936</v>
+      </c>
+      <c r="D25">
+        <v>0.975871928485995</v>
+      </c>
+      <c r="E25">
+        <v>0.9758585829011657</v>
+      </c>
+      <c r="F25">
+        <v>0.9358377698865004</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.032244957695421</v>
+      </c>
+      <c r="J25">
+        <v>0.9904707136137517</v>
+      </c>
+      <c r="K25">
+        <v>0.9888567175093732</v>
+      </c>
+      <c r="L25">
+        <v>0.9888435924934413</v>
+      </c>
+      <c r="M25">
+        <v>0.9495210933919932</v>
+      </c>
+      <c r="N25">
+        <v>0.9918772956356621</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_32/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9770322829265564</v>
+        <v>1.032896927620757</v>
       </c>
       <c r="D2">
-        <v>0.9865144785748292</v>
+        <v>1.033823092741411</v>
       </c>
       <c r="E2">
-        <v>0.9861159312971651</v>
+        <v>1.032220749832632</v>
       </c>
       <c r="F2">
-        <v>0.9526254184861478</v>
+        <v>1.031523158370919</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035338917298117</v>
+        <v>1.031697688990885</v>
       </c>
       <c r="J2">
-        <v>0.9999223485742297</v>
+        <v>1.038024625739814</v>
       </c>
       <c r="K2">
-        <v>0.9981649411251989</v>
+        <v>1.036624334470686</v>
       </c>
       <c r="L2">
-        <v>0.9977721431389701</v>
+        <v>1.035026607613834</v>
       </c>
       <c r="M2">
-        <v>0.9647867404820258</v>
+        <v>1.034331030652835</v>
       </c>
       <c r="N2">
-        <v>1.001342353001901</v>
+        <v>1.039498739771474</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9854975708611499</v>
+        <v>1.034486855960751</v>
       </c>
       <c r="D3">
-        <v>0.9938295759389353</v>
+        <v>1.035240211853633</v>
       </c>
       <c r="E3">
-        <v>0.9931700636229731</v>
+        <v>1.033591638336064</v>
       </c>
       <c r="F3">
-        <v>0.9640970347791573</v>
+        <v>1.033752985904857</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037428459558133</v>
+        <v>1.03198892692478</v>
       </c>
       <c r="J3">
-        <v>1.006391548929914</v>
+        <v>1.039253792883857</v>
       </c>
       <c r="K3">
-        <v>1.004542022104563</v>
+        <v>1.037848892624037</v>
       </c>
       <c r="L3">
-        <v>1.003891087181541</v>
+        <v>1.036204719180097</v>
       </c>
       <c r="M3">
-        <v>0.9752108906030783</v>
+        <v>1.036365635439297</v>
       </c>
       <c r="N3">
-        <v>1.007820740364118</v>
+        <v>1.040729652473829</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9907726998180894</v>
+        <v>1.035512635041849</v>
       </c>
       <c r="D4">
-        <v>0.9983933931861216</v>
+        <v>1.036154628480346</v>
       </c>
       <c r="E4">
-        <v>0.9975726434768105</v>
+        <v>1.034476299611775</v>
       </c>
       <c r="F4">
-        <v>0.9712299420482839</v>
+        <v>1.035192246323551</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03871474510954</v>
+        <v>1.032174825122325</v>
       </c>
       <c r="J4">
-        <v>1.010415422748533</v>
+        <v>1.04004582817573</v>
       </c>
       <c r="K4">
-        <v>1.008511247290453</v>
+        <v>1.038638202201568</v>
       </c>
       <c r="L4">
-        <v>1.007700453108004</v>
+        <v>1.036964123708643</v>
       </c>
       <c r="M4">
-        <v>0.9816884629886171</v>
+        <v>1.03767825546546</v>
       </c>
       <c r="N4">
-        <v>1.011850328545105</v>
+        <v>1.041522812546663</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9929452562202506</v>
+        <v>1.035943165628421</v>
       </c>
       <c r="D5">
-        <v>1.000274199087921</v>
+        <v>1.036538449272424</v>
       </c>
       <c r="E5">
-        <v>0.9993873561578586</v>
+        <v>1.034847648685751</v>
       </c>
       <c r="F5">
-        <v>0.9741646045974328</v>
+        <v>1.035796477591118</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03924063829114</v>
+        <v>1.032252368926881</v>
       </c>
       <c r="J5">
-        <v>1.01207083802713</v>
+        <v>1.040378016550308</v>
       </c>
       <c r="K5">
-        <v>1.01014479874344</v>
+        <v>1.038969305765757</v>
       </c>
       <c r="L5">
-        <v>1.009268394893992</v>
+        <v>1.037282690312303</v>
       </c>
       <c r="M5">
-        <v>0.9843524589265363</v>
+        <v>1.038229168830073</v>
       </c>
       <c r="N5">
-        <v>1.013508094703276</v>
+        <v>1.041855472666836</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9933074837794329</v>
+        <v>1.036015412553412</v>
       </c>
       <c r="D6">
-        <v>1.000587851461566</v>
+        <v>1.036602859622997</v>
       </c>
       <c r="E6">
-        <v>0.9996900067343365</v>
+        <v>1.034909967157071</v>
       </c>
       <c r="F6">
-        <v>0.9746537390372962</v>
+        <v>1.035897882504534</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039328090602496</v>
+        <v>1.032265353323789</v>
       </c>
       <c r="J6">
-        <v>1.012346735539263</v>
+        <v>1.040433746829015</v>
       </c>
       <c r="K6">
-        <v>1.010417088287183</v>
+        <v>1.039024857471601</v>
       </c>
       <c r="L6">
-        <v>1.009529758542354</v>
+        <v>1.037336139051051</v>
       </c>
       <c r="M6">
-        <v>0.9847964165095218</v>
+        <v>1.038321616781854</v>
       </c>
       <c r="N6">
-        <v>1.013784384021522</v>
+        <v>1.041911282088931</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9908019026953789</v>
+        <v>1.035518390571422</v>
       </c>
       <c r="D7">
-        <v>0.9984186697964803</v>
+        <v>1.036159759454168</v>
       </c>
       <c r="E7">
-        <v>0.997597030467761</v>
+        <v>1.034481263791649</v>
       </c>
       <c r="F7">
-        <v>0.9712694000039843</v>
+        <v>1.03520032333385</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038721829413033</v>
+        <v>1.032175863650222</v>
       </c>
       <c r="J7">
-        <v>1.01043768160051</v>
+        <v>1.040050269955541</v>
       </c>
       <c r="K7">
-        <v>1.008533209727876</v>
+        <v>1.038642629246564</v>
       </c>
       <c r="L7">
-        <v>1.00772153274865</v>
+        <v>1.036968383096899</v>
       </c>
       <c r="M7">
-        <v>0.9817242859392297</v>
+        <v>1.037685620349742</v>
       </c>
       <c r="N7">
-        <v>1.011872619007204</v>
+        <v>1.041527260634311</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9799372424288678</v>
+        <v>1.033434883156682</v>
       </c>
       <c r="D8">
-        <v>0.9890235210758375</v>
+        <v>1.034302550614932</v>
       </c>
       <c r="E8">
-        <v>0.9885351146343193</v>
+        <v>1.032684550570059</v>
       </c>
       <c r="F8">
-        <v>0.9565658274646288</v>
+        <v>1.032277496847753</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036059277562805</v>
+        <v>1.031796644611757</v>
       </c>
       <c r="J8">
-        <v>1.002143873327557</v>
+        <v>1.038440722259841</v>
       </c>
       <c r="K8">
-        <v>1.000354257623285</v>
+        <v>1.037038820013962</v>
       </c>
       <c r="L8">
-        <v>0.9998726577756446</v>
+        <v>1.035425365132631</v>
       </c>
       <c r="M8">
-        <v>0.9683681589329673</v>
+        <v>1.035019457308539</v>
       </c>
       <c r="N8">
-        <v>1.003567032575191</v>
+        <v>1.039915427196266</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.959066612791129</v>
+        <v>1.029739791062834</v>
       </c>
       <c r="D9">
-        <v>0.9710259949008474</v>
+        <v>1.031009828712827</v>
       </c>
       <c r="E9">
-        <v>0.9711902205046455</v>
+        <v>1.029499674961994</v>
       </c>
       <c r="F9">
-        <v>0.9281501035815544</v>
+        <v>1.027098504391734</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030817496020233</v>
+        <v>1.03110871982675</v>
       </c>
       <c r="J9">
-        <v>0.9861525140514031</v>
+        <v>1.035578580505082</v>
       </c>
       <c r="K9">
-        <v>0.9846073238728595</v>
+        <v>1.034188771465766</v>
       </c>
       <c r="L9">
-        <v>0.9847686757110647</v>
+        <v>1.032683604473757</v>
       </c>
       <c r="M9">
-        <v>0.9425274065370081</v>
+        <v>1.03029039606787</v>
       </c>
       <c r="N9">
-        <v>0.9875529637346303</v>
+        <v>1.037049220871923</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9437006154344935</v>
+        <v>1.027259590143533</v>
       </c>
       <c r="D10">
-        <v>0.9578187162183261</v>
+        <v>1.028800445113052</v>
       </c>
       <c r="E10">
-        <v>0.9584738857653227</v>
+        <v>1.027363065406554</v>
       </c>
       <c r="F10">
-        <v>0.9070373747622296</v>
+        <v>1.023625032571047</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02687618868089</v>
+        <v>1.030636657430292</v>
       </c>
       <c r="J10">
-        <v>0.9743408164001774</v>
+        <v>1.033652357928665</v>
       </c>
       <c r="K10">
-        <v>0.9729937513090186</v>
+        <v>1.032271965615746</v>
       </c>
       <c r="L10">
-        <v>0.9736356912005273</v>
+        <v>1.03083980923789</v>
       </c>
       <c r="M10">
-        <v>0.9233157526339765</v>
+        <v>1.027115436037157</v>
       </c>
       <c r="N10">
-        <v>0.9757244921179192</v>
+        <v>1.035120262838506</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9366190548568095</v>
+        <v>1.02618145185855</v>
       </c>
       <c r="D11">
-        <v>0.9517447485919028</v>
+        <v>1.027840216392136</v>
       </c>
       <c r="E11">
-        <v>0.952629185823636</v>
+        <v>1.026434565325906</v>
       </c>
       <c r="F11">
-        <v>0.8972392768585065</v>
+        <v>1.022115690811918</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025041609416332</v>
+        <v>1.030429013475902</v>
       </c>
       <c r="J11">
-        <v>0.9688888120489139</v>
+        <v>1.032813824004838</v>
       </c>
       <c r="K11">
-        <v>0.967637912363439</v>
+        <v>1.031437835572051</v>
       </c>
       <c r="L11">
-        <v>0.9685033743617824</v>
+        <v>1.030037495573137</v>
       </c>
       <c r="M11">
-        <v>0.9143994336043594</v>
+        <v>1.025735040680873</v>
       </c>
       <c r="N11">
-        <v>0.9702647452951234</v>
+        <v>1.034280538100326</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9339154130010683</v>
+        <v>1.025780335890226</v>
       </c>
       <c r="D12">
-        <v>0.949427944026572</v>
+        <v>1.027482996865388</v>
       </c>
       <c r="E12">
-        <v>0.950400420109252</v>
+        <v>1.026089164589993</v>
       </c>
       <c r="F12">
-        <v>0.8934857699031779</v>
+        <v>1.021554226332234</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024338588697571</v>
+        <v>1.030351394726526</v>
       </c>
       <c r="J12">
-        <v>0.9668060863737369</v>
+        <v>1.032501670282798</v>
       </c>
       <c r="K12">
-        <v>0.9655926883746666</v>
+        <v>1.031127367120728</v>
       </c>
       <c r="L12">
-        <v>0.9665438285839789</v>
+        <v>1.029738876210821</v>
       </c>
       <c r="M12">
-        <v>0.9109839186537558</v>
+        <v>1.025221428432523</v>
       </c>
       <c r="N12">
-        <v>0.9681790619105958</v>
+        <v>1.033967941084196</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9344988315965671</v>
+        <v>1.025866406201445</v>
       </c>
       <c r="D13">
-        <v>0.9499277858256555</v>
+        <v>1.027559646688693</v>
       </c>
       <c r="E13">
-        <v>0.9508812401395996</v>
+        <v>1.02616327772059</v>
       </c>
       <c r="F13">
-        <v>0.8942963590143646</v>
+        <v>1.021674700322787</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024490408574162</v>
+        <v>1.030368066476042</v>
       </c>
       <c r="J13">
-        <v>0.9672555720588741</v>
+        <v>1.032568659531819</v>
       </c>
       <c r="K13">
-        <v>0.9660340450555776</v>
+        <v>1.03119399262756</v>
       </c>
       <c r="L13">
-        <v>0.9669666807989519</v>
+        <v>1.029802958630948</v>
       </c>
       <c r="M13">
-        <v>0.9117215028568392</v>
+        <v>1.025331639916092</v>
       </c>
       <c r="N13">
-        <v>0.9686291859169625</v>
+        <v>1.034035025465635</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9363971233731169</v>
+        <v>1.026148308794454</v>
       </c>
       <c r="D14">
-        <v>0.9515545260687269</v>
+        <v>1.027810699773633</v>
       </c>
       <c r="E14">
-        <v>0.9524461794521411</v>
+        <v>1.026406024967355</v>
       </c>
       <c r="F14">
-        <v>0.8969314398365708</v>
+        <v>1.022069297047469</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024983953016115</v>
+        <v>1.030422607516617</v>
       </c>
       <c r="J14">
-        <v>0.9687178736937707</v>
+        <v>1.032788035332759</v>
       </c>
       <c r="K14">
-        <v>0.9674700360924644</v>
+        <v>1.031412185193166</v>
       </c>
       <c r="L14">
-        <v>0.9683425239761788</v>
+        <v>1.0300128240059</v>
       </c>
       <c r="M14">
-        <v>0.9141193106672273</v>
+        <v>1.025692603283687</v>
       </c>
       <c r="N14">
-        <v>0.9700935641879093</v>
+        <v>1.034254712805375</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9375567200178916</v>
+        <v>1.026321911981133</v>
       </c>
       <c r="D15">
-        <v>0.9525485313923815</v>
+        <v>1.02796530884112</v>
       </c>
       <c r="E15">
-        <v>0.9534025011406795</v>
+        <v>1.026555520977375</v>
       </c>
       <c r="F15">
-        <v>0.8985393629540652</v>
+        <v>1.022312310504311</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025285104286763</v>
+        <v>1.030456146927075</v>
       </c>
       <c r="J15">
-        <v>0.9696109808095309</v>
+        <v>1.03292310883396</v>
       </c>
       <c r="K15">
-        <v>0.9683471759946805</v>
+        <v>1.031546536233004</v>
       </c>
       <c r="L15">
-        <v>0.969182967491644</v>
+        <v>1.03014204852609</v>
       </c>
       <c r="M15">
-        <v>0.9155824846417371</v>
+        <v>1.025914888338498</v>
       </c>
       <c r="N15">
-        <v>0.9709879396182145</v>
+        <v>1.034389978126441</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9441608566524995</v>
+        <v>1.027331052788458</v>
       </c>
       <c r="D16">
-        <v>0.9582137530125425</v>
+        <v>1.028864096296344</v>
       </c>
       <c r="E16">
-        <v>0.958854088311197</v>
+        <v>1.027424615501016</v>
       </c>
       <c r="F16">
-        <v>0.9076725744928245</v>
+        <v>1.023725088224395</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026995057676793</v>
+        <v>1.030650369510496</v>
       </c>
       <c r="J16">
-        <v>0.9746949803363004</v>
+        <v>1.033707913379139</v>
       </c>
       <c r="K16">
-        <v>0.9733417695555585</v>
+        <v>1.032327235708914</v>
       </c>
       <c r="L16">
-        <v>0.9739692269714701</v>
+        <v>1.030892972102508</v>
       </c>
       <c r="M16">
-        <v>0.9238937986355165</v>
+        <v>1.027206927602908</v>
       </c>
       <c r="N16">
-        <v>0.976079159007455</v>
+        <v>1.035175897184093</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9481831172256691</v>
+        <v>1.027962925007426</v>
       </c>
       <c r="D17">
-        <v>0.9616676085949941</v>
+        <v>1.02942692115532</v>
       </c>
       <c r="E17">
-        <v>0.9621786423957187</v>
+        <v>1.027968873398426</v>
       </c>
       <c r="F17">
-        <v>0.913216038844829</v>
+        <v>1.024609844411698</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028031890691605</v>
+        <v>1.030771330478101</v>
       </c>
       <c r="J17">
-        <v>0.9777892420210149</v>
+        <v>1.034198994955858</v>
       </c>
       <c r="K17">
-        <v>0.9763828693323369</v>
+        <v>1.032815829972309</v>
       </c>
       <c r="L17">
-        <v>0.9768839887526077</v>
+        <v>1.031362943366914</v>
       </c>
       <c r="M17">
-        <v>0.9289384468596749</v>
+        <v>1.028015866223682</v>
       </c>
       <c r="N17">
-        <v>0.9791778148986782</v>
+        <v>1.035667676152978</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9504886295459012</v>
+        <v>1.02833108180421</v>
       </c>
       <c r="D18">
-        <v>0.9636484833368714</v>
+        <v>1.029754865726501</v>
       </c>
       <c r="E18">
-        <v>0.9640856788391785</v>
+        <v>1.028286009060539</v>
       </c>
       <c r="F18">
-        <v>0.9163873458880959</v>
+        <v>1.025125397909577</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028624492254433</v>
+        <v>1.030841572840976</v>
       </c>
       <c r="J18">
-        <v>0.9795620460670137</v>
+        <v>1.034485004487535</v>
       </c>
       <c r="K18">
-        <v>0.9781256486805451</v>
+        <v>1.033100420156731</v>
       </c>
       <c r="L18">
-        <v>0.978554539547144</v>
+        <v>1.031636690544158</v>
       </c>
       <c r="M18">
-        <v>0.9318243267301787</v>
+        <v>1.028487166420562</v>
       </c>
       <c r="N18">
-        <v>0.9809531365297662</v>
+        <v>1.035954091850996</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9512681049847932</v>
+        <v>1.028456545820011</v>
       </c>
       <c r="D19">
-        <v>0.9643183926213477</v>
+        <v>1.02986662883154</v>
       </c>
       <c r="E19">
-        <v>0.9647306693139542</v>
+        <v>1.02839409012661</v>
       </c>
       <c r="F19">
-        <v>0.9174585617602359</v>
+        <v>1.025301102776804</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028824554405996</v>
+        <v>1.030865470852857</v>
       </c>
       <c r="J19">
-        <v>0.9801612815737629</v>
+        <v>1.034582453818345</v>
       </c>
       <c r="K19">
-        <v>0.9787148074265919</v>
+        <v>1.033197390849853</v>
       </c>
       <c r="L19">
-        <v>0.9791193092016343</v>
+        <v>1.031729967334691</v>
       </c>
       <c r="M19">
-        <v>0.9327991122283169</v>
+        <v>1.028647776857222</v>
       </c>
       <c r="N19">
-        <v>0.981553223019668</v>
+        <v>1.036051679571033</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9477558253950161</v>
+        <v>1.027895172966087</v>
       </c>
       <c r="D20">
-        <v>0.9613005765001069</v>
+        <v>1.029366570815903</v>
       </c>
       <c r="E20">
-        <v>0.9618253171549135</v>
+        <v>1.027910512952512</v>
       </c>
       <c r="F20">
-        <v>0.9126278019955112</v>
+        <v>1.024514971399633</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027921922135892</v>
+        <v>1.030758384824911</v>
       </c>
       <c r="J20">
-        <v>0.9774606150937628</v>
+        <v>1.034146351131131</v>
       </c>
       <c r="K20">
-        <v>0.9760598429706732</v>
+        <v>1.032763449755491</v>
       </c>
       <c r="L20">
-        <v>0.9765743638194464</v>
+        <v>1.031312559202582</v>
       </c>
       <c r="M20">
-        <v>0.9284031461994329</v>
+        <v>1.027929130824086</v>
       </c>
       <c r="N20">
-        <v>0.9788487212834955</v>
+        <v>1.035614957567982</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9358402266368043</v>
+        <v>1.026065313517561</v>
       </c>
       <c r="D21">
-        <v>0.9510772326126665</v>
+        <v>1.02773678613608</v>
       </c>
       <c r="E21">
-        <v>0.9519870019672394</v>
+        <v>1.026334556265051</v>
       </c>
       <c r="F21">
-        <v>0.8961587649942706</v>
+        <v>1.021953121245174</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024839233450085</v>
+        <v>1.030406560114026</v>
       </c>
       <c r="J21">
-        <v>0.968288915437135</v>
+        <v>1.03272345364512</v>
       </c>
       <c r="K21">
-        <v>0.9670487744223714</v>
+        <v>1.031347950569571</v>
       </c>
       <c r="L21">
-        <v>0.9679388980814185</v>
+        <v>1.029951040669268</v>
       </c>
       <c r="M21">
-        <v>0.9134162026887793</v>
+        <v>1.025586332866391</v>
       </c>
       <c r="N21">
-        <v>0.9696639967613467</v>
+        <v>1.034190039404332</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9279187751133057</v>
+        <v>1.024911053903934</v>
       </c>
       <c r="D22">
-        <v>0.9442935922836159</v>
+        <v>1.026708899039037</v>
       </c>
       <c r="E22">
-        <v>0.945462348974665</v>
+        <v>1.025340706363554</v>
       </c>
       <c r="F22">
-        <v>0.8851336023495301</v>
+        <v>1.0203375798012</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022774633538614</v>
+        <v>1.030182513773406</v>
       </c>
       <c r="J22">
-        <v>0.9621844090047735</v>
+        <v>1.031824852007701</v>
       </c>
       <c r="K22">
-        <v>0.961055722528422</v>
+        <v>1.030454286997939</v>
       </c>
       <c r="L22">
-        <v>0.9621975715257015</v>
+        <v>1.029091496974644</v>
       </c>
       <c r="M22">
-        <v>0.9033845625885291</v>
+        <v>1.024108263768596</v>
       </c>
       <c r="N22">
-        <v>0.9635508212296547</v>
+        <v>1.033290161649517</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9321623214662929</v>
+        <v>1.025523310422205</v>
       </c>
       <c r="D23">
-        <v>0.9479263252213671</v>
+        <v>1.027254107390533</v>
       </c>
       <c r="E23">
-        <v>0.9489560383696574</v>
+        <v>1.025867852365514</v>
       </c>
       <c r="F23">
-        <v>0.8910479675229955</v>
+        <v>1.021194474646518</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023882020185921</v>
+        <v>1.030301555576175</v>
       </c>
       <c r="J23">
-        <v>0.9654552682074917</v>
+        <v>1.032301598655534</v>
       </c>
       <c r="K23">
-        <v>0.9642664172707115</v>
+        <v>1.030928388582179</v>
       </c>
       <c r="L23">
-        <v>0.9652732138163456</v>
+        <v>1.029547493667373</v>
       </c>
       <c r="M23">
-        <v>0.9087657277292919</v>
+        <v>1.024892305183155</v>
       </c>
       <c r="N23">
-        <v>0.9668263254276135</v>
+        <v>1.033767585332272</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.947949025002863</v>
+        <v>1.027925788443985</v>
       </c>
       <c r="D24">
-        <v>0.9614665261133131</v>
+        <v>1.029393841592038</v>
       </c>
       <c r="E24">
-        <v>0.9619850683720929</v>
+        <v>1.027936884516917</v>
       </c>
       <c r="F24">
-        <v>0.9128937916859206</v>
+        <v>1.024557842004432</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027971649615046</v>
+        <v>1.030764235372756</v>
       </c>
       <c r="J24">
-        <v>0.9776092059199818</v>
+        <v>1.034170139938107</v>
       </c>
       <c r="K24">
-        <v>0.976205900118679</v>
+        <v>1.032787119352208</v>
       </c>
       <c r="L24">
-        <v>0.9767143609445524</v>
+        <v>1.031335326808947</v>
       </c>
       <c r="M24">
-        <v>0.9286451993553162</v>
+        <v>1.027968324485492</v>
       </c>
       <c r="N24">
-        <v>0.9789975231257316</v>
+        <v>1.035638780157792</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9646937990380936</v>
+        <v>1.030697957885978</v>
       </c>
       <c r="D25">
-        <v>0.975871928485995</v>
+        <v>1.031863531061262</v>
       </c>
       <c r="E25">
-        <v>0.9758585829011657</v>
+        <v>1.030325344872316</v>
       </c>
       <c r="F25">
-        <v>0.9358377698865004</v>
+        <v>1.028440948832606</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032244957695421</v>
+        <v>1.031288919525301</v>
       </c>
       <c r="J25">
-        <v>0.9904707136137517</v>
+        <v>1.036321655667884</v>
       </c>
       <c r="K25">
-        <v>0.9888567175093732</v>
+        <v>1.034928483155612</v>
       </c>
       <c r="L25">
-        <v>0.9888435924934413</v>
+        <v>1.033395179426279</v>
       </c>
       <c r="M25">
-        <v>0.9495210933919932</v>
+        <v>1.031516786553059</v>
       </c>
       <c r="N25">
-        <v>0.9918772956356621</v>
+        <v>1.037793351286687</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_32/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.032896927620757</v>
+        <v>0.9770322829265556</v>
       </c>
       <c r="D2">
-        <v>1.033823092741411</v>
+        <v>0.9865144785748281</v>
       </c>
       <c r="E2">
-        <v>1.032220749832632</v>
+        <v>0.986115931297164</v>
       </c>
       <c r="F2">
-        <v>1.031523158370919</v>
+        <v>0.9526254184861466</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031697688990885</v>
+        <v>1.035338917298116</v>
       </c>
       <c r="J2">
-        <v>1.038024625739814</v>
+        <v>0.9999223485742287</v>
       </c>
       <c r="K2">
-        <v>1.036624334470686</v>
+        <v>0.9981649411251978</v>
       </c>
       <c r="L2">
-        <v>1.035026607613834</v>
+        <v>0.9977721431389692</v>
       </c>
       <c r="M2">
-        <v>1.034331030652835</v>
+        <v>0.9647867404820248</v>
       </c>
       <c r="N2">
-        <v>1.039498739771474</v>
+        <v>1.001342353001901</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034486855960751</v>
+        <v>0.9854975708611496</v>
       </c>
       <c r="D3">
-        <v>1.035240211853633</v>
+        <v>0.9938295759389348</v>
       </c>
       <c r="E3">
-        <v>1.033591638336064</v>
+        <v>0.9931700636229727</v>
       </c>
       <c r="F3">
-        <v>1.033752985904857</v>
+        <v>0.9640970347791569</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03198892692478</v>
+        <v>1.037428459558133</v>
       </c>
       <c r="J3">
-        <v>1.039253792883857</v>
+        <v>1.006391548929913</v>
       </c>
       <c r="K3">
-        <v>1.037848892624037</v>
+        <v>1.004542022104563</v>
       </c>
       <c r="L3">
-        <v>1.036204719180097</v>
+        <v>1.003891087181541</v>
       </c>
       <c r="M3">
-        <v>1.036365635439297</v>
+        <v>0.9752108906030779</v>
       </c>
       <c r="N3">
-        <v>1.040729652473829</v>
+        <v>1.007820740364118</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035512635041849</v>
+        <v>0.99077269981809</v>
       </c>
       <c r="D4">
-        <v>1.036154628480346</v>
+        <v>0.9983933931861222</v>
       </c>
       <c r="E4">
-        <v>1.034476299611775</v>
+        <v>0.9975726434768112</v>
       </c>
       <c r="F4">
-        <v>1.035192246323551</v>
+        <v>0.9712299420482844</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032174825122325</v>
+        <v>1.03871474510954</v>
       </c>
       <c r="J4">
-        <v>1.04004582817573</v>
+        <v>1.010415422748534</v>
       </c>
       <c r="K4">
-        <v>1.038638202201568</v>
+        <v>1.008511247290454</v>
       </c>
       <c r="L4">
-        <v>1.036964123708643</v>
+        <v>1.007700453108004</v>
       </c>
       <c r="M4">
-        <v>1.03767825546546</v>
+        <v>0.9816884629886174</v>
       </c>
       <c r="N4">
-        <v>1.041522812546663</v>
+        <v>1.011850328545106</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035943165628421</v>
+        <v>0.9929452562202515</v>
       </c>
       <c r="D5">
-        <v>1.036538449272424</v>
+        <v>1.000274199087922</v>
       </c>
       <c r="E5">
-        <v>1.034847648685751</v>
+        <v>0.9993873561578597</v>
       </c>
       <c r="F5">
-        <v>1.035796477591118</v>
+        <v>0.9741646045974343</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032252368926881</v>
+        <v>1.03924063829114</v>
       </c>
       <c r="J5">
-        <v>1.040378016550308</v>
+        <v>1.012070838027131</v>
       </c>
       <c r="K5">
-        <v>1.038969305765757</v>
+        <v>1.010144798743441</v>
       </c>
       <c r="L5">
-        <v>1.037282690312303</v>
+        <v>1.009268394893994</v>
       </c>
       <c r="M5">
-        <v>1.038229168830073</v>
+        <v>0.9843524589265379</v>
       </c>
       <c r="N5">
-        <v>1.041855472666836</v>
+        <v>1.013508094703277</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036015412553412</v>
+        <v>0.9933074837794328</v>
       </c>
       <c r="D6">
-        <v>1.036602859622997</v>
+        <v>1.000587851461566</v>
       </c>
       <c r="E6">
-        <v>1.034909967157071</v>
+        <v>0.9996900067343362</v>
       </c>
       <c r="F6">
-        <v>1.035897882504534</v>
+        <v>0.9746537390372962</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032265353323789</v>
+        <v>1.039328090602496</v>
       </c>
       <c r="J6">
-        <v>1.040433746829015</v>
+        <v>1.012346735539262</v>
       </c>
       <c r="K6">
-        <v>1.039024857471601</v>
+        <v>1.010417088287183</v>
       </c>
       <c r="L6">
-        <v>1.037336139051051</v>
+        <v>1.009529758542354</v>
       </c>
       <c r="M6">
-        <v>1.038321616781854</v>
+        <v>0.9847964165095219</v>
       </c>
       <c r="N6">
-        <v>1.041911282088931</v>
+        <v>1.013784384021522</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035518390571422</v>
+        <v>0.9908019026953788</v>
       </c>
       <c r="D7">
-        <v>1.036159759454168</v>
+        <v>0.9984186697964801</v>
       </c>
       <c r="E7">
-        <v>1.034481263791649</v>
+        <v>0.9975970304677608</v>
       </c>
       <c r="F7">
-        <v>1.03520032333385</v>
+        <v>0.9712694000039845</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032175863650222</v>
+        <v>1.038721829413033</v>
       </c>
       <c r="J7">
-        <v>1.040050269955541</v>
+        <v>1.010437681600509</v>
       </c>
       <c r="K7">
-        <v>1.038642629246564</v>
+        <v>1.008533209727876</v>
       </c>
       <c r="L7">
-        <v>1.036968383096899</v>
+        <v>1.00772153274865</v>
       </c>
       <c r="M7">
-        <v>1.037685620349742</v>
+        <v>0.9817242859392298</v>
       </c>
       <c r="N7">
-        <v>1.041527260634311</v>
+        <v>1.011872619007204</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033434883156682</v>
+        <v>0.9799372424288669</v>
       </c>
       <c r="D8">
-        <v>1.034302550614932</v>
+        <v>0.9890235210758367</v>
       </c>
       <c r="E8">
-        <v>1.032684550570059</v>
+        <v>0.9885351146343182</v>
       </c>
       <c r="F8">
-        <v>1.032277496847753</v>
+        <v>0.9565658274646277</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031796644611757</v>
+        <v>1.036059277562805</v>
       </c>
       <c r="J8">
-        <v>1.038440722259841</v>
+        <v>1.002143873327556</v>
       </c>
       <c r="K8">
-        <v>1.037038820013962</v>
+        <v>1.000354257623284</v>
       </c>
       <c r="L8">
-        <v>1.035425365132631</v>
+        <v>0.9998726577756436</v>
       </c>
       <c r="M8">
-        <v>1.035019457308539</v>
+        <v>0.9683681589329662</v>
       </c>
       <c r="N8">
-        <v>1.039915427196266</v>
+        <v>1.00356703257519</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029739791062834</v>
+        <v>0.9590666127911308</v>
       </c>
       <c r="D9">
-        <v>1.031009828712827</v>
+        <v>0.9710259949008492</v>
       </c>
       <c r="E9">
-        <v>1.029499674961994</v>
+        <v>0.9711902205046474</v>
       </c>
       <c r="F9">
-        <v>1.027098504391734</v>
+        <v>0.9281501035815566</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03110871982675</v>
+        <v>1.030817496020234</v>
       </c>
       <c r="J9">
-        <v>1.035578580505082</v>
+        <v>0.986152514051405</v>
       </c>
       <c r="K9">
-        <v>1.034188771465766</v>
+        <v>0.9846073238728612</v>
       </c>
       <c r="L9">
-        <v>1.032683604473757</v>
+        <v>0.9847686757110666</v>
       </c>
       <c r="M9">
-        <v>1.03029039606787</v>
+        <v>0.9425274065370103</v>
       </c>
       <c r="N9">
-        <v>1.037049220871923</v>
+        <v>0.9875529637346322</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.027259590143533</v>
+        <v>0.9437006154344947</v>
       </c>
       <c r="D10">
-        <v>1.028800445113052</v>
+        <v>0.9578187162183273</v>
       </c>
       <c r="E10">
-        <v>1.027363065406554</v>
+        <v>0.9584738857653234</v>
       </c>
       <c r="F10">
-        <v>1.023625032571047</v>
+        <v>0.9070373747622311</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030636657430292</v>
+        <v>1.02687618868089</v>
       </c>
       <c r="J10">
-        <v>1.033652357928665</v>
+        <v>0.9743408164001787</v>
       </c>
       <c r="K10">
-        <v>1.032271965615746</v>
+        <v>0.9729937513090198</v>
       </c>
       <c r="L10">
-        <v>1.03083980923789</v>
+        <v>0.973635691200528</v>
       </c>
       <c r="M10">
-        <v>1.027115436037157</v>
+        <v>0.9233157526339782</v>
       </c>
       <c r="N10">
-        <v>1.035120262838506</v>
+        <v>0.9757244921179204</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.02618145185855</v>
+        <v>0.9366190548568091</v>
       </c>
       <c r="D11">
-        <v>1.027840216392136</v>
+        <v>0.9517447485919024</v>
       </c>
       <c r="E11">
-        <v>1.026434565325906</v>
+        <v>0.9526291858236355</v>
       </c>
       <c r="F11">
-        <v>1.022115690811918</v>
+        <v>0.8972392768585055</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030429013475902</v>
+        <v>1.025041609416332</v>
       </c>
       <c r="J11">
-        <v>1.032813824004838</v>
+        <v>0.9688888120489133</v>
       </c>
       <c r="K11">
-        <v>1.031437835572051</v>
+        <v>0.9676379123634385</v>
       </c>
       <c r="L11">
-        <v>1.030037495573137</v>
+        <v>0.9685033743617819</v>
       </c>
       <c r="M11">
-        <v>1.025735040680873</v>
+        <v>0.9143994336043585</v>
       </c>
       <c r="N11">
-        <v>1.034280538100326</v>
+        <v>0.9702647452951229</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025780335890226</v>
+        <v>0.933915413001068</v>
       </c>
       <c r="D12">
-        <v>1.027482996865388</v>
+        <v>0.9494279440265715</v>
       </c>
       <c r="E12">
-        <v>1.026089164589993</v>
+        <v>0.9504004201092514</v>
       </c>
       <c r="F12">
-        <v>1.021554226332234</v>
+        <v>0.8934857699031774</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030351394726526</v>
+        <v>1.02433858869757</v>
       </c>
       <c r="J12">
-        <v>1.032501670282798</v>
+        <v>0.9668060863737366</v>
       </c>
       <c r="K12">
-        <v>1.031127367120728</v>
+        <v>0.9655926883746664</v>
       </c>
       <c r="L12">
-        <v>1.029738876210821</v>
+        <v>0.9665438285839782</v>
       </c>
       <c r="M12">
-        <v>1.025221428432523</v>
+        <v>0.9109839186537552</v>
       </c>
       <c r="N12">
-        <v>1.033967941084196</v>
+        <v>0.9681790619105952</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.025866406201445</v>
+        <v>0.9344988315965654</v>
       </c>
       <c r="D13">
-        <v>1.027559646688693</v>
+        <v>0.9499277858256541</v>
       </c>
       <c r="E13">
-        <v>1.02616327772059</v>
+        <v>0.9508812401395982</v>
       </c>
       <c r="F13">
-        <v>1.021674700322787</v>
+        <v>0.8942963590143628</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030368066476042</v>
+        <v>1.024490408574162</v>
       </c>
       <c r="J13">
-        <v>1.032568659531819</v>
+        <v>0.9672555720588727</v>
       </c>
       <c r="K13">
-        <v>1.03119399262756</v>
+        <v>0.9660340450555761</v>
       </c>
       <c r="L13">
-        <v>1.029802958630948</v>
+        <v>0.9669666807989504</v>
       </c>
       <c r="M13">
-        <v>1.025331639916092</v>
+        <v>0.9117215028568375</v>
       </c>
       <c r="N13">
-        <v>1.034035025465635</v>
+        <v>0.968629185916961</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.026148308794454</v>
+        <v>0.9363971233731155</v>
       </c>
       <c r="D14">
-        <v>1.027810699773633</v>
+        <v>0.9515545260687257</v>
       </c>
       <c r="E14">
-        <v>1.026406024967355</v>
+        <v>0.9524461794521397</v>
       </c>
       <c r="F14">
-        <v>1.022069297047469</v>
+        <v>0.8969314398365692</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030422607516617</v>
+        <v>1.024983953016114</v>
       </c>
       <c r="J14">
-        <v>1.032788035332759</v>
+        <v>0.9687178736937694</v>
       </c>
       <c r="K14">
-        <v>1.031412185193166</v>
+        <v>0.9674700360924633</v>
       </c>
       <c r="L14">
-        <v>1.0300128240059</v>
+        <v>0.9683425239761776</v>
       </c>
       <c r="M14">
-        <v>1.025692603283687</v>
+        <v>0.9141193106672261</v>
       </c>
       <c r="N14">
-        <v>1.034254712805375</v>
+        <v>0.9700935641879078</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026321911981133</v>
+        <v>0.9375567200178923</v>
       </c>
       <c r="D15">
-        <v>1.02796530884112</v>
+        <v>0.9525485313923817</v>
       </c>
       <c r="E15">
-        <v>1.026555520977375</v>
+        <v>0.9534025011406803</v>
       </c>
       <c r="F15">
-        <v>1.022312310504311</v>
+        <v>0.8985393629540657</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030456146927075</v>
+        <v>1.025285104286763</v>
       </c>
       <c r="J15">
-        <v>1.03292310883396</v>
+        <v>0.9696109808095315</v>
       </c>
       <c r="K15">
-        <v>1.031546536233004</v>
+        <v>0.9683471759946808</v>
       </c>
       <c r="L15">
-        <v>1.03014204852609</v>
+        <v>0.9691829674916447</v>
       </c>
       <c r="M15">
-        <v>1.025914888338498</v>
+        <v>0.9155824846417374</v>
       </c>
       <c r="N15">
-        <v>1.034389978126441</v>
+        <v>0.9709879396182148</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.027331052788458</v>
+        <v>0.9441608566524979</v>
       </c>
       <c r="D16">
-        <v>1.028864096296344</v>
+        <v>0.9582137530125412</v>
       </c>
       <c r="E16">
-        <v>1.027424615501016</v>
+        <v>0.9588540883111958</v>
       </c>
       <c r="F16">
-        <v>1.023725088224395</v>
+        <v>0.9076725744928232</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030650369510496</v>
+        <v>1.026995057676793</v>
       </c>
       <c r="J16">
-        <v>1.033707913379139</v>
+        <v>0.9746949803362991</v>
       </c>
       <c r="K16">
-        <v>1.032327235708914</v>
+        <v>0.9733417695555573</v>
       </c>
       <c r="L16">
-        <v>1.030892972102508</v>
+        <v>0.9739692269714688</v>
       </c>
       <c r="M16">
-        <v>1.027206927602908</v>
+        <v>0.9238937986355155</v>
       </c>
       <c r="N16">
-        <v>1.035175897184093</v>
+        <v>0.9760791590074536</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027962925007426</v>
+        <v>0.9481831172256699</v>
       </c>
       <c r="D17">
-        <v>1.02942692115532</v>
+        <v>0.961667608594995</v>
       </c>
       <c r="E17">
-        <v>1.027968873398426</v>
+        <v>0.9621786423957193</v>
       </c>
       <c r="F17">
-        <v>1.024609844411698</v>
+        <v>0.9132160388448299</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030771330478101</v>
+        <v>1.028031890691605</v>
       </c>
       <c r="J17">
-        <v>1.034198994955858</v>
+        <v>0.9777892420210158</v>
       </c>
       <c r="K17">
-        <v>1.032815829972309</v>
+        <v>0.9763828693323376</v>
       </c>
       <c r="L17">
-        <v>1.031362943366914</v>
+        <v>0.9768839887526085</v>
       </c>
       <c r="M17">
-        <v>1.028015866223682</v>
+        <v>0.9289384468596756</v>
       </c>
       <c r="N17">
-        <v>1.035667676152978</v>
+        <v>0.9791778148986788</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.02833108180421</v>
+        <v>0.9504886295459007</v>
       </c>
       <c r="D18">
-        <v>1.029754865726501</v>
+        <v>0.9636484833368709</v>
       </c>
       <c r="E18">
-        <v>1.028286009060539</v>
+        <v>0.9640856788391783</v>
       </c>
       <c r="F18">
-        <v>1.025125397909577</v>
+        <v>0.9163873458880956</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030841572840976</v>
+        <v>1.028624492254433</v>
       </c>
       <c r="J18">
-        <v>1.034485004487535</v>
+        <v>0.9795620460670135</v>
       </c>
       <c r="K18">
-        <v>1.033100420156731</v>
+        <v>0.9781256486805447</v>
       </c>
       <c r="L18">
-        <v>1.031636690544158</v>
+        <v>0.9785545395471438</v>
       </c>
       <c r="M18">
-        <v>1.028487166420562</v>
+        <v>0.9318243267301785</v>
       </c>
       <c r="N18">
-        <v>1.035954091850996</v>
+        <v>0.9809531365297658</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028456545820011</v>
+        <v>0.9512681049847925</v>
       </c>
       <c r="D19">
-        <v>1.02986662883154</v>
+        <v>0.9643183926213469</v>
       </c>
       <c r="E19">
-        <v>1.02839409012661</v>
+        <v>0.9647306693139533</v>
       </c>
       <c r="F19">
-        <v>1.025301102776804</v>
+        <v>0.9174585617602352</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030865470852857</v>
+        <v>1.028824554405996</v>
       </c>
       <c r="J19">
-        <v>1.034582453818345</v>
+        <v>0.9801612815737623</v>
       </c>
       <c r="K19">
-        <v>1.033197390849853</v>
+        <v>0.9787148074265912</v>
       </c>
       <c r="L19">
-        <v>1.031729967334691</v>
+        <v>0.9791193092016335</v>
       </c>
       <c r="M19">
-        <v>1.028647776857222</v>
+        <v>0.9327991122283162</v>
       </c>
       <c r="N19">
-        <v>1.036051679571033</v>
+        <v>0.9815532230196673</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.027895172966087</v>
+        <v>0.9477558253950132</v>
       </c>
       <c r="D20">
-        <v>1.029366570815903</v>
+        <v>0.9613005765001041</v>
       </c>
       <c r="E20">
-        <v>1.027910512952512</v>
+        <v>0.9618253171549107</v>
       </c>
       <c r="F20">
-        <v>1.024514971399633</v>
+        <v>0.9126278019955083</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030758384824911</v>
+        <v>1.027921922135891</v>
       </c>
       <c r="J20">
-        <v>1.034146351131131</v>
+        <v>0.9774606150937601</v>
       </c>
       <c r="K20">
-        <v>1.032763449755491</v>
+        <v>0.9760598429706705</v>
       </c>
       <c r="L20">
-        <v>1.031312559202582</v>
+        <v>0.9765743638194437</v>
       </c>
       <c r="M20">
-        <v>1.027929130824086</v>
+        <v>0.9284031461994301</v>
       </c>
       <c r="N20">
-        <v>1.035614957567982</v>
+        <v>0.9788487212834929</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026065313517561</v>
+        <v>0.9358402266368038</v>
       </c>
       <c r="D21">
-        <v>1.02773678613608</v>
+        <v>0.9510772326126657</v>
       </c>
       <c r="E21">
-        <v>1.026334556265051</v>
+        <v>0.9519870019672384</v>
       </c>
       <c r="F21">
-        <v>1.021953121245174</v>
+        <v>0.8961587649942701</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030406560114026</v>
+        <v>1.024839233450085</v>
       </c>
       <c r="J21">
-        <v>1.03272345364512</v>
+        <v>0.9682889154371345</v>
       </c>
       <c r="K21">
-        <v>1.031347950569571</v>
+        <v>0.9670487744223706</v>
       </c>
       <c r="L21">
-        <v>1.029951040669268</v>
+        <v>0.9679388980814175</v>
       </c>
       <c r="M21">
-        <v>1.025586332866391</v>
+        <v>0.9134162026887789</v>
       </c>
       <c r="N21">
-        <v>1.034190039404332</v>
+        <v>0.969663996761346</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.024911053903934</v>
+        <v>0.9279187751133063</v>
       </c>
       <c r="D22">
-        <v>1.026708899039037</v>
+        <v>0.9442935922836166</v>
       </c>
       <c r="E22">
-        <v>1.025340706363554</v>
+        <v>0.9454623489746655</v>
       </c>
       <c r="F22">
-        <v>1.0203375798012</v>
+        <v>0.8851336023495304</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030182513773406</v>
+        <v>1.022774633538614</v>
       </c>
       <c r="J22">
-        <v>1.031824852007701</v>
+        <v>0.962184409004774</v>
       </c>
       <c r="K22">
-        <v>1.030454286997939</v>
+        <v>0.9610557225284224</v>
       </c>
       <c r="L22">
-        <v>1.029091496974644</v>
+        <v>0.962197571525702</v>
       </c>
       <c r="M22">
-        <v>1.024108263768596</v>
+        <v>0.9033845625885293</v>
       </c>
       <c r="N22">
-        <v>1.033290161649517</v>
+        <v>0.9635508212296552</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025523310422205</v>
+        <v>0.932162321466293</v>
       </c>
       <c r="D23">
-        <v>1.027254107390533</v>
+        <v>0.9479263252213671</v>
       </c>
       <c r="E23">
-        <v>1.025867852365514</v>
+        <v>0.9489560383696578</v>
       </c>
       <c r="F23">
-        <v>1.021194474646518</v>
+        <v>0.8910479675229956</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030301555576175</v>
+        <v>1.023882020185921</v>
       </c>
       <c r="J23">
-        <v>1.032301598655534</v>
+        <v>0.9654552682074919</v>
       </c>
       <c r="K23">
-        <v>1.030928388582179</v>
+        <v>0.9642664172707115</v>
       </c>
       <c r="L23">
-        <v>1.029547493667373</v>
+        <v>0.9652732138163458</v>
       </c>
       <c r="M23">
-        <v>1.024892305183155</v>
+        <v>0.9087657277292922</v>
       </c>
       <c r="N23">
-        <v>1.033767585332272</v>
+        <v>0.9668263254276135</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.027925788443985</v>
+        <v>0.9479490250028644</v>
       </c>
       <c r="D24">
-        <v>1.029393841592038</v>
+        <v>0.9614665261133152</v>
       </c>
       <c r="E24">
-        <v>1.027936884516917</v>
+        <v>0.9619850683720941</v>
       </c>
       <c r="F24">
-        <v>1.024557842004432</v>
+        <v>0.912893791685922</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030764235372756</v>
+        <v>1.027971649615047</v>
       </c>
       <c r="J24">
-        <v>1.034170139938107</v>
+        <v>0.9776092059199833</v>
       </c>
       <c r="K24">
-        <v>1.032787119352208</v>
+        <v>0.9762059001186808</v>
       </c>
       <c r="L24">
-        <v>1.031335326808947</v>
+        <v>0.9767143609445534</v>
       </c>
       <c r="M24">
-        <v>1.027968324485492</v>
+        <v>0.9286451993553176</v>
       </c>
       <c r="N24">
-        <v>1.035638780157792</v>
+        <v>0.978997523125733</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.030697957885978</v>
+        <v>0.9646937990380926</v>
       </c>
       <c r="D25">
-        <v>1.031863531061262</v>
+        <v>0.9758719284859939</v>
       </c>
       <c r="E25">
-        <v>1.030325344872316</v>
+        <v>0.9758585829011649</v>
       </c>
       <c r="F25">
-        <v>1.028440948832606</v>
+        <v>0.9358377698864994</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031288919525301</v>
+        <v>1.03224495769542</v>
       </c>
       <c r="J25">
-        <v>1.036321655667884</v>
+        <v>0.9904707136137508</v>
       </c>
       <c r="K25">
-        <v>1.034928483155612</v>
+        <v>0.9888567175093721</v>
       </c>
       <c r="L25">
-        <v>1.033395179426279</v>
+        <v>0.9888435924934403</v>
       </c>
       <c r="M25">
-        <v>1.031516786553059</v>
+        <v>0.9495210933919921</v>
       </c>
       <c r="N25">
-        <v>1.037793351286687</v>
+        <v>0.9918772956356613</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_32/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,989 +412,1145 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1.049999999999999</v>
-      </c>
       <c r="C2">
-        <v>0.9770322829265556</v>
+        <v>0.9836269189460357</v>
       </c>
       <c r="D2">
-        <v>0.9865144785748281</v>
+        <v>1.004692961752747</v>
       </c>
       <c r="E2">
-        <v>0.986115931297164</v>
+        <v>0.9909875651468015</v>
       </c>
       <c r="F2">
-        <v>0.9526254184861466</v>
+        <v>1.014117516771066</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>1.035338917298116</v>
-      </c>
       <c r="J2">
-        <v>0.9999223485742287</v>
+        <v>1.006308623213333</v>
       </c>
       <c r="K2">
-        <v>0.9981649411251978</v>
+        <v>1.016087301069883</v>
       </c>
       <c r="L2">
-        <v>0.9977721431389692</v>
+        <v>1.002573902035931</v>
       </c>
       <c r="M2">
-        <v>0.9647867404820248</v>
+        <v>1.025383614349751</v>
       </c>
       <c r="N2">
-        <v>1.001342353001901</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.003217408159924</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.028661719525082</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.022444916093179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1.05</v>
-      </c>
       <c r="C3">
-        <v>0.9854975708611496</v>
+        <v>0.9900407968762089</v>
       </c>
       <c r="D3">
-        <v>0.9938295759389348</v>
+        <v>1.009604438037133</v>
       </c>
       <c r="E3">
-        <v>0.9931700636229727</v>
+        <v>0.9963901353878241</v>
       </c>
       <c r="F3">
-        <v>0.9640970347791569</v>
+        <v>1.018671675948132</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>1.037428459558133</v>
-      </c>
       <c r="J3">
-        <v>1.006391548929913</v>
+        <v>1.01080669158945</v>
       </c>
       <c r="K3">
-        <v>1.004542022104563</v>
+        <v>1.020115885708242</v>
       </c>
       <c r="L3">
-        <v>1.003891087181541</v>
+        <v>1.007069414436793</v>
       </c>
       <c r="M3">
-        <v>0.9752108906030779</v>
+        <v>1.029071095817541</v>
       </c>
       <c r="N3">
-        <v>1.007820740364118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.005065849592943</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.031580156705685</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.025290888442308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1.05</v>
-      </c>
       <c r="C4">
-        <v>0.99077269981809</v>
+        <v>0.9940805945878565</v>
       </c>
       <c r="D4">
-        <v>0.9983933931861222</v>
+        <v>1.012705485202279</v>
       </c>
       <c r="E4">
-        <v>0.9975726434768112</v>
+        <v>0.9997969251877215</v>
       </c>
       <c r="F4">
-        <v>0.9712299420482844</v>
+        <v>1.021551897298125</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>1.03871474510954</v>
-      </c>
       <c r="J4">
-        <v>1.010415422748534</v>
+        <v>1.013636941048562</v>
       </c>
       <c r="K4">
-        <v>1.008511247290454</v>
+        <v>1.022652947090422</v>
       </c>
       <c r="L4">
-        <v>1.007700453108004</v>
+        <v>1.009897801761559</v>
       </c>
       <c r="M4">
-        <v>0.9816884629886174</v>
+        <v>1.031396986415172</v>
       </c>
       <c r="N4">
-        <v>1.011850328545106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.006224343862429</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.033420963899536</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.027085797384759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>1.05</v>
-      </c>
       <c r="C5">
-        <v>0.9929452562202515</v>
+        <v>0.995766167981223</v>
       </c>
       <c r="D5">
-        <v>1.000274199087922</v>
+        <v>1.014004194798706</v>
       </c>
       <c r="E5">
-        <v>0.9993873561578597</v>
+        <v>1.001220682353779</v>
       </c>
       <c r="F5">
-        <v>0.9741646045974343</v>
+        <v>1.022757195830755</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>1.03924063829114</v>
-      </c>
       <c r="J5">
-        <v>1.012070838027131</v>
+        <v>1.014820480754705</v>
       </c>
       <c r="K5">
-        <v>1.010144798743441</v>
+        <v>1.02371605191733</v>
       </c>
       <c r="L5">
-        <v>1.009268394893994</v>
+        <v>1.011080166145659</v>
       </c>
       <c r="M5">
-        <v>0.9843524589265379</v>
+        <v>1.032370591192196</v>
       </c>
       <c r="N5">
-        <v>1.013508094703277</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.006709092915048</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.034191514046327</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.027844822006589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1.05</v>
-      </c>
       <c r="C6">
-        <v>0.9933074837794328</v>
+        <v>0.9960628312364767</v>
       </c>
       <c r="D6">
-        <v>1.000587851461566</v>
+        <v>1.014236605548607</v>
       </c>
       <c r="E6">
-        <v>0.9996900067343362</v>
+        <v>1.001473052557937</v>
       </c>
       <c r="F6">
-        <v>0.9746537390372962</v>
+        <v>1.02297046254863</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>1.039328090602496</v>
-      </c>
       <c r="J6">
-        <v>1.012346735539262</v>
+        <v>1.015032859758678</v>
       </c>
       <c r="K6">
-        <v>1.010417088287183</v>
+        <v>1.023908823617263</v>
       </c>
       <c r="L6">
-        <v>1.009529758542354</v>
+        <v>1.011291945304943</v>
       </c>
       <c r="M6">
-        <v>0.9847964165095219</v>
+        <v>1.032544908468545</v>
       </c>
       <c r="N6">
-        <v>1.013784384021522</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.006797773314225</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.034329475690882</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.027990020661461</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>1.05</v>
-      </c>
       <c r="C7">
-        <v>0.9908019026953788</v>
+        <v>0.994144411996129</v>
       </c>
       <c r="D7">
-        <v>0.9984186697964801</v>
+        <v>1.012764710421243</v>
       </c>
       <c r="E7">
-        <v>0.9975970304677608</v>
+        <v>0.9998555912079592</v>
       </c>
       <c r="F7">
-        <v>0.9712694000039845</v>
+        <v>1.021600106192863</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>1.038721829413033</v>
-      </c>
       <c r="J7">
-        <v>1.010437681600509</v>
+        <v>1.013692953674474</v>
       </c>
       <c r="K7">
-        <v>1.008533209727876</v>
+        <v>1.022708529014902</v>
       </c>
       <c r="L7">
-        <v>1.00772153274865</v>
+        <v>1.009952757377802</v>
       </c>
       <c r="M7">
-        <v>0.9817242859392298</v>
+        <v>1.031441727055868</v>
       </c>
       <c r="N7">
-        <v>1.011872619007204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.006252146366835</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.033456373468278</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.027145559332706</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1.05</v>
-      </c>
       <c r="C8">
-        <v>0.9799372424288669</v>
+        <v>0.9858725354958828</v>
       </c>
       <c r="D8">
-        <v>0.9890235210758367</v>
+        <v>1.00642382040268</v>
       </c>
       <c r="E8">
-        <v>0.9885351146343182</v>
+        <v>0.9928846901283574</v>
       </c>
       <c r="F8">
-        <v>0.9565658274646277</v>
+        <v>1.01571280601559</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>1.036059277562805</v>
-      </c>
       <c r="J8">
-        <v>1.002143873327556</v>
+        <v>1.007898636170266</v>
       </c>
       <c r="K8">
-        <v>1.000354257623284</v>
+        <v>1.017517474405327</v>
       </c>
       <c r="L8">
-        <v>0.9998726577756436</v>
+        <v>1.004161913303221</v>
       </c>
       <c r="M8">
-        <v>0.9683681589329662</v>
+        <v>1.026684062000242</v>
       </c>
       <c r="N8">
-        <v>1.00356703257519</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.003878242238788</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.02969095315709</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.023479607485901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>1.05</v>
-      </c>
       <c r="C9">
-        <v>0.9590666127911308</v>
+        <v>0.9703159679761395</v>
       </c>
       <c r="D9">
-        <v>0.9710259949008492</v>
+        <v>0.9945473077651645</v>
       </c>
       <c r="E9">
-        <v>0.9711902205046474</v>
+        <v>0.9798028027610399</v>
       </c>
       <c r="F9">
-        <v>0.9281501035815566</v>
+        <v>1.004736894022667</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="I9">
-        <v>1.030817496020234</v>
-      </c>
       <c r="J9">
-        <v>0.986152514051405</v>
+        <v>0.9969623223154327</v>
       </c>
       <c r="K9">
-        <v>0.9846073238728612</v>
+        <v>1.007729474951259</v>
       </c>
       <c r="L9">
-        <v>0.9847686757110666</v>
+        <v>0.9932322916021681</v>
       </c>
       <c r="M9">
-        <v>0.9425274065370103</v>
+        <v>1.017753583098271</v>
       </c>
       <c r="N9">
-        <v>0.9875529637346322</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>0.9993544705753312</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.022622933390233</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.016555213185194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>1.05</v>
-      </c>
       <c r="C10">
-        <v>0.9437006154344947</v>
+        <v>0.9594772528806655</v>
       </c>
       <c r="D10">
-        <v>0.9578187162183273</v>
+        <v>0.9863697259177828</v>
       </c>
       <c r="E10">
-        <v>0.9584738857653234</v>
+        <v>0.9707479026679229</v>
       </c>
       <c r="F10">
-        <v>0.9070373747622311</v>
+        <v>0.9972521708434966</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>1.02687618868089</v>
-      </c>
       <c r="J10">
-        <v>0.9743408164001787</v>
+        <v>0.9893962838956256</v>
       </c>
       <c r="K10">
-        <v>0.9729937513090198</v>
+        <v>1.000989518746526</v>
       </c>
       <c r="L10">
-        <v>0.973635691200528</v>
+        <v>0.9856661915969016</v>
       </c>
       <c r="M10">
-        <v>0.9233157526339782</v>
+        <v>1.011671216065766</v>
       </c>
       <c r="N10">
-        <v>0.9757244921179204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0.9962309563590119</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.017861765255545</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.011806647953362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>1.05</v>
-      </c>
       <c r="C11">
-        <v>0.9366190548568091</v>
+        <v>0.956572874722851</v>
       </c>
       <c r="D11">
-        <v>0.9517447485919024</v>
+        <v>0.9845604195347784</v>
       </c>
       <c r="E11">
-        <v>0.9526291858236355</v>
+        <v>0.9685665449655646</v>
       </c>
       <c r="F11">
-        <v>0.8972392768585055</v>
+        <v>0.9959658175566907</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>1.025041609416332</v>
-      </c>
       <c r="J11">
-        <v>0.9688888120489133</v>
+        <v>0.9878709219769056</v>
       </c>
       <c r="K11">
-        <v>0.9676379123634385</v>
+        <v>0.9997794980880502</v>
       </c>
       <c r="L11">
-        <v>0.9685033743617819</v>
+        <v>0.984106635902861</v>
       </c>
       <c r="M11">
-        <v>0.9143994336043585</v>
+        <v>1.01096421577737</v>
       </c>
       <c r="N11">
-        <v>0.9702647452951229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.9958161052774025</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.017749143649611</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.010984984061694</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>1.05</v>
-      </c>
       <c r="C12">
-        <v>0.933915413001068</v>
+        <v>0.9562517552759886</v>
       </c>
       <c r="D12">
-        <v>0.9494279440265715</v>
+        <v>0.9845941596692437</v>
       </c>
       <c r="E12">
-        <v>0.9504004201092514</v>
+        <v>0.9684909363809887</v>
       </c>
       <c r="F12">
-        <v>0.8934857699031774</v>
+        <v>0.9962605558407739</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="I12">
-        <v>1.02433858869757</v>
-      </c>
       <c r="J12">
-        <v>0.9668060863737366</v>
+        <v>0.9880303799783475</v>
       </c>
       <c r="K12">
-        <v>0.9655926883746664</v>
+        <v>1.00002258519366</v>
       </c>
       <c r="L12">
-        <v>0.9665438285839782</v>
+        <v>0.9842477647635405</v>
       </c>
       <c r="M12">
-        <v>0.9109839186537552</v>
+        <v>1.011459750082575</v>
       </c>
       <c r="N12">
-        <v>0.9681790619105952</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.9960630643474888</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.018474520476826</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.011156865343905</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>1.05</v>
-      </c>
       <c r="C13">
-        <v>0.9344988315965654</v>
+        <v>0.9579503018194171</v>
       </c>
       <c r="D13">
-        <v>0.9499277858256541</v>
+        <v>0.9860998255343078</v>
       </c>
       <c r="E13">
-        <v>0.9508812401395982</v>
+        <v>0.9700771199685412</v>
       </c>
       <c r="F13">
-        <v>0.8942963590143628</v>
+        <v>0.9978420492925741</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="I13">
-        <v>1.024490408574162</v>
-      </c>
       <c r="J13">
-        <v>0.9672555720588727</v>
+        <v>0.9895478289077658</v>
       </c>
       <c r="K13">
-        <v>0.9660340450555761</v>
+        <v>1.001453318223318</v>
       </c>
       <c r="L13">
-        <v>0.9669666807989504</v>
+        <v>0.9857549122962724</v>
       </c>
       <c r="M13">
-        <v>0.9117215028568375</v>
+        <v>1.012966536026609</v>
       </c>
       <c r="N13">
-        <v>0.968629185916961</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.9968615833772099</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.01994757332003</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.012165930422171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>1.05</v>
-      </c>
       <c r="C14">
-        <v>0.9363971233731155</v>
+        <v>0.9600440139467464</v>
       </c>
       <c r="D14">
-        <v>0.9515545260687257</v>
+        <v>0.9878131981565851</v>
       </c>
       <c r="E14">
-        <v>0.9524461794521397</v>
+        <v>0.9719316960714429</v>
       </c>
       <c r="F14">
-        <v>0.8969314398365692</v>
+        <v>0.9995239486652706</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="I14">
-        <v>1.024983953016114</v>
-      </c>
       <c r="J14">
-        <v>0.9687178736937694</v>
+        <v>0.991217131674476</v>
       </c>
       <c r="K14">
-        <v>0.9674700360924633</v>
+        <v>1.002985934308793</v>
       </c>
       <c r="L14">
-        <v>0.9683425239761776</v>
+        <v>0.9874207819998004</v>
       </c>
       <c r="M14">
-        <v>0.9141193106672261</v>
+        <v>1.014471828859619</v>
       </c>
       <c r="N14">
-        <v>0.9700935641879078</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>0.9976674242169098</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.021313354601119</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.013251074250557</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>1.05</v>
-      </c>
       <c r="C15">
-        <v>0.9375567200178923</v>
+        <v>0.9610075335108647</v>
       </c>
       <c r="D15">
-        <v>0.9525485313923817</v>
+        <v>0.9885693756583757</v>
       </c>
       <c r="E15">
-        <v>0.9534025011406803</v>
+        <v>0.9727589941794887</v>
       </c>
       <c r="F15">
-        <v>0.8985393629540657</v>
+        <v>1.000238243623426</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>1.025285104286763</v>
-      </c>
       <c r="J15">
-        <v>0.9696109808095315</v>
+        <v>0.9919359473563943</v>
       </c>
       <c r="K15">
-        <v>0.9683471759946808</v>
+        <v>1.003636978244204</v>
       </c>
       <c r="L15">
-        <v>0.9691829674916447</v>
+        <v>0.9881386912767182</v>
       </c>
       <c r="M15">
-        <v>0.9155824846417374</v>
+        <v>1.015083765789845</v>
       </c>
       <c r="N15">
-        <v>0.9709879396182148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>0.9979909858377134</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.021835045903063</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.013717456722927</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>1.05</v>
-      </c>
       <c r="C16">
-        <v>0.9441608566524979</v>
+        <v>0.9652598259294143</v>
       </c>
       <c r="D16">
-        <v>0.9582137530125412</v>
+        <v>0.9917336167746991</v>
       </c>
       <c r="E16">
-        <v>0.9588540883111958</v>
+        <v>0.9762668503807693</v>
       </c>
       <c r="F16">
-        <v>0.9076725744928232</v>
+        <v>1.003123996440006</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="I16">
-        <v>1.026995057676793</v>
-      </c>
       <c r="J16">
-        <v>0.9746949803362991</v>
+        <v>0.9948415057533294</v>
       </c>
       <c r="K16">
-        <v>0.9733417695555573</v>
+        <v>1.00621662280387</v>
       </c>
       <c r="L16">
-        <v>0.9739692269714688</v>
+        <v>0.991040273702525</v>
       </c>
       <c r="M16">
-        <v>0.9238937986355155</v>
+        <v>1.017400561687789</v>
       </c>
       <c r="N16">
-        <v>0.9760791590074536</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>0.9991537228997849</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.023626998233623</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.015544699217384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>1.05</v>
-      </c>
       <c r="C17">
-        <v>0.9481831172256699</v>
+        <v>0.9674306666886455</v>
       </c>
       <c r="D17">
-        <v>0.961667608594995</v>
+        <v>0.9932696765119604</v>
       </c>
       <c r="E17">
-        <v>0.9621786423957193</v>
+        <v>0.9779935874868076</v>
       </c>
       <c r="F17">
-        <v>0.9132160388448299</v>
+        <v>1.004456539619825</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>1.028031890691605</v>
-      </c>
       <c r="J17">
-        <v>0.9777892420210158</v>
+        <v>0.9962006476166928</v>
       </c>
       <c r="K17">
-        <v>0.9763828693323376</v>
+        <v>1.007396750817375</v>
       </c>
       <c r="L17">
-        <v>0.9768839887526085</v>
+        <v>0.9923987938956452</v>
       </c>
       <c r="M17">
-        <v>0.9289384468596756</v>
+        <v>1.018386878168515</v>
       </c>
       <c r="N17">
-        <v>0.9791778148986788</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>0.9996253344370702</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.024275876000865</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.016381787220434</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>1.05</v>
-      </c>
       <c r="C18">
-        <v>0.9504886295459007</v>
+        <v>0.9679745514164441</v>
       </c>
       <c r="D18">
-        <v>0.9636484833368709</v>
+        <v>0.9934913299968475</v>
       </c>
       <c r="E18">
-        <v>0.9640856788391783</v>
+        <v>0.9783059319542212</v>
       </c>
       <c r="F18">
-        <v>0.9163873458880956</v>
+        <v>1.004499420068684</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="I18">
-        <v>1.028624492254433</v>
-      </c>
       <c r="J18">
-        <v>0.9795620460670135</v>
+        <v>0.996304531130992</v>
       </c>
       <c r="K18">
-        <v>0.9781256486805447</v>
+        <v>1.007423365366546</v>
       </c>
       <c r="L18">
-        <v>0.9785545395471438</v>
+        <v>0.9925099438426502</v>
       </c>
       <c r="M18">
-        <v>0.9318243267301785</v>
+        <v>1.018240937018672</v>
       </c>
       <c r="N18">
-        <v>0.9809531365297658</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>0.9995223897586716</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.023919258849028</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.016388651676276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>1.05</v>
-      </c>
       <c r="C19">
-        <v>0.9512681049847925</v>
+        <v>0.9671657407569431</v>
       </c>
       <c r="D19">
-        <v>0.9643183926213469</v>
+        <v>0.9926311169593824</v>
       </c>
       <c r="E19">
-        <v>0.9647306693139533</v>
+        <v>0.977457504601405</v>
       </c>
       <c r="F19">
-        <v>0.9174585617602352</v>
+        <v>1.003450379487455</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="I19">
-        <v>1.028824554405996</v>
-      </c>
       <c r="J19">
-        <v>0.9801612815737623</v>
+        <v>0.9953869968458854</v>
       </c>
       <c r="K19">
-        <v>0.9787148074265912</v>
+        <v>1.006513037151078</v>
       </c>
       <c r="L19">
-        <v>0.9791193092016335</v>
+        <v>0.9916103339384716</v>
       </c>
       <c r="M19">
-        <v>0.9327991122283162</v>
+        <v>1.017145594271444</v>
       </c>
       <c r="N19">
-        <v>0.9815532230196673</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>0.9989737585255718</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.022721892091354</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.015751563131159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>1.05</v>
-      </c>
       <c r="C20">
-        <v>0.9477558253950132</v>
+        <v>0.9624438502686103</v>
       </c>
       <c r="D20">
-        <v>0.9613005765001041</v>
+        <v>0.9886343638018931</v>
       </c>
       <c r="E20">
-        <v>0.9618253171549107</v>
+        <v>0.9732409125548106</v>
       </c>
       <c r="F20">
-        <v>0.9126278019955083</v>
+        <v>0.9993077449718389</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>1.027921922135891</v>
-      </c>
       <c r="J20">
-        <v>0.9774606150937601</v>
+        <v>0.9915034096765065</v>
       </c>
       <c r="K20">
-        <v>0.9760598429706705</v>
+        <v>1.002880052326546</v>
       </c>
       <c r="L20">
-        <v>0.9765743638194437</v>
+        <v>0.9877711939124287</v>
       </c>
       <c r="M20">
-        <v>0.9284031461994301</v>
+        <v>1.013362777781316</v>
       </c>
       <c r="N20">
-        <v>0.9788487212834929</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>0.9971187427335089</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.019189676188196</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.01318683555269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>1.05</v>
-      </c>
       <c r="C21">
-        <v>0.9358402266368038</v>
+        <v>0.9538252922184089</v>
       </c>
       <c r="D21">
-        <v>0.9510772326126657</v>
+        <v>0.9820777595930054</v>
       </c>
       <c r="E21">
-        <v>0.9519870019672384</v>
+        <v>0.9660101864397229</v>
       </c>
       <c r="F21">
-        <v>0.8961587649942701</v>
+        <v>0.993245799259035</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>1.024839233450085</v>
-      </c>
       <c r="J21">
-        <v>0.9682889154371345</v>
+        <v>0.9853889750616133</v>
       </c>
       <c r="K21">
-        <v>0.9670487744223706</v>
+        <v>0.9974068198194539</v>
       </c>
       <c r="L21">
-        <v>0.9679388980814175</v>
+        <v>0.9816654455287064</v>
       </c>
       <c r="M21">
-        <v>0.9134162026887789</v>
+        <v>1.008356271910646</v>
       </c>
       <c r="N21">
-        <v>0.969663996761346</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9945494771459407</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.015185359639536</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.009320203806982</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>1.05</v>
-      </c>
       <c r="C22">
-        <v>0.9279187751133063</v>
+        <v>0.9482761513658102</v>
       </c>
       <c r="D22">
-        <v>0.9442935922836166</v>
+        <v>0.9778801360247572</v>
       </c>
       <c r="E22">
-        <v>0.9454623489746655</v>
+        <v>0.9613702415191312</v>
       </c>
       <c r="F22">
-        <v>0.8851336023495304</v>
+        <v>0.9894034014283504</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>1.022774633538614</v>
-      </c>
       <c r="J22">
-        <v>0.962184409004774</v>
+        <v>0.9814672473635122</v>
       </c>
       <c r="K22">
-        <v>0.9610557225284224</v>
+        <v>0.9939029072506756</v>
       </c>
       <c r="L22">
-        <v>0.962197571525702</v>
+        <v>0.9777478709557452</v>
       </c>
       <c r="M22">
-        <v>0.9033845625885293</v>
+        <v>1.005187742906495</v>
       </c>
       <c r="N22">
-        <v>0.9635508212296552</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9929034901870374</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.012677584261996</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.006828647030686</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>1.05</v>
-      </c>
       <c r="C23">
-        <v>0.932162321466293</v>
+        <v>0.9511866758683181</v>
       </c>
       <c r="D23">
-        <v>0.9479263252213671</v>
+        <v>0.980070124304005</v>
       </c>
       <c r="E23">
-        <v>0.9489560383696578</v>
+        <v>0.9637967562859622</v>
       </c>
       <c r="F23">
-        <v>0.8910479675229956</v>
+        <v>0.9914140264597778</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="I23">
-        <v>1.023882020185921</v>
-      </c>
       <c r="J23">
-        <v>0.9654552682074919</v>
+        <v>0.9835119454291864</v>
       </c>
       <c r="K23">
-        <v>0.9642664172707115</v>
+        <v>0.9957247715313134</v>
       </c>
       <c r="L23">
-        <v>0.9652732138163458</v>
+        <v>0.9797908508489608</v>
       </c>
       <c r="M23">
-        <v>0.9087657277292922</v>
+        <v>1.006840708494237</v>
       </c>
       <c r="N23">
-        <v>0.9668263254276135</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9937561448766981</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.013985847560561</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.008106876250371</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>1.05</v>
-      </c>
       <c r="C24">
-        <v>0.9479490250028644</v>
+        <v>0.9623321734036078</v>
       </c>
       <c r="D24">
-        <v>0.9614665261133152</v>
+        <v>0.9884999808018184</v>
       </c>
       <c r="E24">
-        <v>0.9619850683720941</v>
+        <v>0.9731178622460118</v>
       </c>
       <c r="F24">
-        <v>0.912893791685922</v>
+        <v>0.9991568201328392</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="I24">
-        <v>1.027971649615047</v>
-      </c>
       <c r="J24">
-        <v>0.9776092059199833</v>
+        <v>0.9913614956398615</v>
       </c>
       <c r="K24">
-        <v>0.9762059001186808</v>
+        <v>1.002732104987393</v>
       </c>
       <c r="L24">
-        <v>0.9767143609445534</v>
+        <v>0.987634098067389</v>
       </c>
       <c r="M24">
-        <v>0.9286451993553176</v>
+        <v>1.013198759152154</v>
       </c>
       <c r="N24">
-        <v>0.978997523125733</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>0.9970330336294568</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.019017993550211</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.013053957880399</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>1.05</v>
-      </c>
       <c r="C25">
-        <v>0.9646937990380926</v>
+        <v>0.9745301622792731</v>
       </c>
       <c r="D25">
-        <v>0.9758719284859939</v>
+        <v>0.9977730840507721</v>
       </c>
       <c r="E25">
-        <v>0.9758585829011649</v>
+        <v>0.983350746024349</v>
       </c>
       <c r="F25">
-        <v>0.9358377698864994</v>
+        <v>1.007702066259908</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>1.03224495769542</v>
-      </c>
       <c r="J25">
-        <v>0.9904707136137508</v>
+        <v>0.9999461783703223</v>
       </c>
       <c r="K25">
-        <v>0.9888567175093721</v>
+        <v>1.010406068666572</v>
       </c>
       <c r="L25">
-        <v>0.9888435924934403</v>
+        <v>0.996213138349932</v>
       </c>
       <c r="M25">
-        <v>0.9495210933919921</v>
+        <v>1.020181982691092</v>
       </c>
       <c r="N25">
-        <v>0.9918772956356613</v>
+        <v>1.00060133031235</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.024544895384753</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.018477186259964</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_32/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_32/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,1133 +424,1355 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9836269189460357</v>
+        <v>0.987954678029747</v>
       </c>
       <c r="D2">
-        <v>1.004692961752747</v>
+        <v>1.008448624005616</v>
       </c>
       <c r="E2">
-        <v>0.9909875651468015</v>
+        <v>0.9951022180610741</v>
       </c>
       <c r="F2">
-        <v>1.014117516771066</v>
+        <v>1.017107642896784</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="J2">
-        <v>1.006308623213333</v>
+        <v>1.010501729905668</v>
       </c>
       <c r="K2">
-        <v>1.016087301069883</v>
+        <v>1.019791497659322</v>
       </c>
       <c r="L2">
-        <v>1.002573902035931</v>
+        <v>1.006630211140803</v>
       </c>
       <c r="M2">
-        <v>1.025383614349751</v>
+        <v>1.028333677007788</v>
       </c>
       <c r="N2">
-        <v>1.003217408159924</v>
+        <v>1.008348131975456</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.028661719525082</v>
+        <v>1.030996531574575</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.022444916093179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.02507316579527</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.016147779661924</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9900407968762089</v>
+        <v>0.9934563930420377</v>
       </c>
       <c r="D3">
-        <v>1.009604438037133</v>
+        <v>1.012459399985978</v>
       </c>
       <c r="E3">
-        <v>0.9963901353878241</v>
+        <v>0.9996644534002636</v>
       </c>
       <c r="F3">
-        <v>1.018671675948132</v>
+        <v>1.020965856483894</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="J3">
-        <v>1.01080669158945</v>
+        <v>1.014127046967659</v>
       </c>
       <c r="K3">
-        <v>1.020115885708242</v>
+        <v>1.02293530441807</v>
       </c>
       <c r="L3">
-        <v>1.007069414436793</v>
+        <v>1.01030162940891</v>
       </c>
       <c r="M3">
-        <v>1.029071095817541</v>
+        <v>1.031337323195295</v>
       </c>
       <c r="N3">
-        <v>1.005065849592943</v>
+        <v>1.009504784968201</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.031580156705685</v>
+        <v>1.033373743989918</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.025290888442308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.027293191373269</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.017030565816528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9940805945878565</v>
+        <v>0.9969366191832142</v>
       </c>
       <c r="D4">
-        <v>1.012705485202279</v>
+        <v>1.01500341297229</v>
       </c>
       <c r="E4">
-        <v>0.9997969251877215</v>
+        <v>1.002555337778011</v>
       </c>
       <c r="F4">
-        <v>1.021551897298125</v>
+        <v>1.023416706416081</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="J4">
-        <v>1.013636941048562</v>
+        <v>1.016419012497766</v>
       </c>
       <c r="K4">
-        <v>1.022652947090422</v>
+        <v>1.024924070597114</v>
       </c>
       <c r="L4">
-        <v>1.009897801761559</v>
+        <v>1.012623019652658</v>
       </c>
       <c r="M4">
-        <v>1.031396986415172</v>
+        <v>1.033240494171412</v>
       </c>
       <c r="N4">
-        <v>1.006224343862429</v>
+        <v>1.010233647112497</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.033420963899536</v>
+        <v>1.034879989688426</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.027085797384759</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.028700453748838</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.017584422130276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.995766167981223</v>
+        <v>0.9983910777852595</v>
       </c>
       <c r="D5">
-        <v>1.014004194798706</v>
+        <v>1.016071268671684</v>
       </c>
       <c r="E5">
-        <v>1.001220682353779</v>
+        <v>1.003765855629135</v>
       </c>
       <c r="F5">
-        <v>1.022757195830755</v>
+        <v>1.024444245297595</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="J5">
-        <v>1.014820480754705</v>
+        <v>1.01737956125242</v>
       </c>
       <c r="K5">
-        <v>1.02371605191733</v>
+        <v>1.025759684892407</v>
       </c>
       <c r="L5">
-        <v>1.011080166145659</v>
+        <v>1.013595576523181</v>
       </c>
       <c r="M5">
-        <v>1.032370591192196</v>
+        <v>1.034038901046236</v>
       </c>
       <c r="N5">
-        <v>1.006709092915048</v>
+        <v>1.010539502838261</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.034191514046327</v>
+        <v>1.035511879893408</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.027844822006589</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.029299308249412</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.017817238294038</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9960628312364767</v>
+        <v>0.9986460017396064</v>
       </c>
       <c r="D6">
-        <v>1.014236605548607</v>
+        <v>1.016262234323645</v>
       </c>
       <c r="E6">
-        <v>1.001473052557937</v>
+        <v>1.003979587921427</v>
       </c>
       <c r="F6">
-        <v>1.02297046254863</v>
+        <v>1.024625548691489</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="J6">
-        <v>1.015032859758678</v>
+        <v>1.017551600248652</v>
       </c>
       <c r="K6">
-        <v>1.023908823617263</v>
+        <v>1.025911591893572</v>
       </c>
       <c r="L6">
-        <v>1.011291945304943</v>
+        <v>1.013769312687173</v>
       </c>
       <c r="M6">
-        <v>1.032544908468545</v>
+        <v>1.034181697491578</v>
       </c>
       <c r="N6">
-        <v>1.006797773314225</v>
+        <v>1.010595459475075</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.034329475690882</v>
+        <v>1.035624894485905</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.027990020661461</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.029416463905894</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.0178609912756</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.994144411996129</v>
+        <v>0.9970023322067975</v>
       </c>
       <c r="D7">
-        <v>1.012764710421243</v>
+        <v>1.015062935647003</v>
       </c>
       <c r="E7">
-        <v>0.9998555912079592</v>
+        <v>1.002616421444233</v>
       </c>
       <c r="F7">
-        <v>1.021600106192863</v>
+        <v>1.02346540713038</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="J7">
-        <v>1.013692953674474</v>
+        <v>1.0164769118192</v>
       </c>
       <c r="K7">
-        <v>1.022708529014902</v>
+        <v>1.02497995936677</v>
       </c>
       <c r="L7">
-        <v>1.009952757377802</v>
+        <v>1.012680379916078</v>
       </c>
       <c r="M7">
-        <v>1.031441727055868</v>
+        <v>1.033285730623047</v>
       </c>
       <c r="N7">
-        <v>1.006252146366835</v>
+        <v>1.01028327038058</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.033456373468278</v>
+        <v>1.034915791587999</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.027145559332706</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.028762393709893</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.01760595138212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9858725354958828</v>
+        <v>0.9899170839325325</v>
       </c>
       <c r="D8">
-        <v>1.00642382040268</v>
+        <v>1.009895008422953</v>
       </c>
       <c r="E8">
-        <v>0.9928846901283574</v>
+        <v>0.9967416664333235</v>
       </c>
       <c r="F8">
-        <v>1.01571280601559</v>
+        <v>1.018483919238296</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="J8">
-        <v>1.007898636170266</v>
+        <v>1.011821868694112</v>
       </c>
       <c r="K8">
-        <v>1.017517474405327</v>
+        <v>1.020942593178406</v>
       </c>
       <c r="L8">
-        <v>1.004161913303221</v>
+        <v>1.007965955565619</v>
       </c>
       <c r="M8">
-        <v>1.026684062000242</v>
+        <v>1.029419202266459</v>
       </c>
       <c r="N8">
-        <v>1.003878242238788</v>
+        <v>1.008859704225829</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.02969095315709</v>
+        <v>1.031855663031341</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.023479607485901</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.025912710548583</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.016483488594923</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9703159679761395</v>
+        <v>0.9766825577315089</v>
       </c>
       <c r="D9">
-        <v>0.9945473077651645</v>
+        <v>1.000279624915981</v>
       </c>
       <c r="E9">
-        <v>0.9798028027610399</v>
+        <v>0.9857961794632467</v>
       </c>
       <c r="F9">
-        <v>1.004736894022667</v>
+        <v>1.009262228988058</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="J9">
-        <v>0.9969623223154327</v>
+        <v>1.003086464310111</v>
       </c>
       <c r="K9">
-        <v>1.007729474951259</v>
+        <v>1.013368167029444</v>
       </c>
       <c r="L9">
-        <v>0.9932322916021681</v>
+        <v>0.9991239855568183</v>
       </c>
       <c r="M9">
-        <v>1.017753583098271</v>
+        <v>1.022206799357796</v>
       </c>
       <c r="N9">
-        <v>0.9993544705753312</v>
+        <v>1.006068339123445</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.022622933390233</v>
+        <v>1.02614743666207</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.016555213185194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.020553379838865</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.014328265962886</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9594772528806655</v>
+        <v>0.9676013410971939</v>
       </c>
       <c r="D10">
-        <v>0.9863697259177828</v>
+        <v>0.9937765620515719</v>
       </c>
       <c r="E10">
-        <v>0.9707479026679229</v>
+        <v>0.97835551493485</v>
       </c>
       <c r="F10">
-        <v>0.9972521708434966</v>
+        <v>1.003083677017787</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="J10">
-        <v>0.9893962838956256</v>
+        <v>0.9971620912398643</v>
       </c>
       <c r="K10">
-        <v>1.000989518746526</v>
+        <v>1.008259099150729</v>
       </c>
       <c r="L10">
-        <v>0.9856661915969016</v>
+        <v>0.9931268821720342</v>
       </c>
       <c r="M10">
-        <v>1.011671216065766</v>
+        <v>1.017397477041666</v>
       </c>
       <c r="N10">
-        <v>0.9962309563590119</v>
+        <v>1.004304916843839</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.017861765255545</v>
+        <v>1.02239355436901</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.011806647953362</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.01695971916205</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.012881105358183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.956572874722851</v>
+        <v>0.9650149288531624</v>
       </c>
       <c r="D11">
-        <v>0.9845604195347784</v>
+        <v>0.9922793901834109</v>
       </c>
       <c r="E11">
-        <v>0.9685665449655646</v>
+        <v>0.9764532623333659</v>
       </c>
       <c r="F11">
-        <v>0.9959658175566907</v>
+        <v>1.002031624845857</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="J11">
-        <v>0.9878709219769056</v>
+        <v>0.9959191982390991</v>
       </c>
       <c r="K11">
-        <v>0.9997794980880502</v>
+        <v>1.007348389571382</v>
       </c>
       <c r="L11">
-        <v>0.984106635902861</v>
+        <v>0.9918333298248412</v>
       </c>
       <c r="M11">
-        <v>1.01096421577737</v>
+        <v>1.016915329131566</v>
       </c>
       <c r="N11">
-        <v>0.9958161052774025</v>
+        <v>1.004296894230918</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.017749143649611</v>
+        <v>1.022456409826735</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.010984984061694</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.016352750412381</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.012790193449856</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9562517552759886</v>
+        <v>0.9645731499352895</v>
       </c>
       <c r="D12">
-        <v>0.9845941596692437</v>
+        <v>0.9922143365193929</v>
       </c>
       <c r="E12">
-        <v>0.9684909363809887</v>
+        <v>0.9762518488222757</v>
       </c>
       <c r="F12">
-        <v>0.9962605558407739</v>
+        <v>1.002241152224367</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="J12">
-        <v>0.9880303799783475</v>
+        <v>0.9959563767723981</v>
       </c>
       <c r="K12">
-        <v>1.00002258519366</v>
+        <v>1.007492233248079</v>
       </c>
       <c r="L12">
-        <v>0.9842477647635405</v>
+        <v>0.991848621075857</v>
       </c>
       <c r="M12">
-        <v>1.011459750082575</v>
+        <v>1.017325540884101</v>
       </c>
       <c r="N12">
-        <v>0.9960630643474888</v>
+        <v>1.00453339445134</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.018474520476826</v>
+        <v>1.023112665636249</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.011156865343905</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.016454455230432</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.012960222337576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9579503018194171</v>
+        <v>0.9657738013416038</v>
       </c>
       <c r="D13">
-        <v>0.9860998255343078</v>
+        <v>0.9932711014282865</v>
       </c>
       <c r="E13">
-        <v>0.9700771199685412</v>
+        <v>0.9773607925595884</v>
       </c>
       <c r="F13">
-        <v>0.9978420492925741</v>
+        <v>1.003464564431575</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="J13">
-        <v>0.9895478289077658</v>
+        <v>0.9970025692417073</v>
       </c>
       <c r="K13">
-        <v>1.001453318223318</v>
+        <v>1.008483890503674</v>
       </c>
       <c r="L13">
-        <v>0.9857549122962724</v>
+        <v>0.9928894267095728</v>
       </c>
       <c r="M13">
-        <v>1.012966536026609</v>
+        <v>1.01848187657482</v>
       </c>
       <c r="N13">
-        <v>0.9968615833772099</v>
+        <v>1.004945871315294</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.01994757332003</v>
+        <v>1.024307484737291</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.012165930422171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.017152805122691</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.01335167326779</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9600440139467464</v>
+        <v>0.9673565849570547</v>
       </c>
       <c r="D14">
-        <v>0.9878131981565851</v>
+        <v>0.9945189089555215</v>
       </c>
       <c r="E14">
-        <v>0.9719316960714429</v>
+        <v>0.978730343628749</v>
       </c>
       <c r="F14">
-        <v>0.9995239486652706</v>
+        <v>1.004778269543475</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="J14">
-        <v>0.991217131674476</v>
+        <v>0.9981910729607448</v>
       </c>
       <c r="K14">
-        <v>1.002985934308793</v>
+        <v>1.009562041849641</v>
       </c>
       <c r="L14">
-        <v>0.9874207819998004</v>
+        <v>0.9940823517305071</v>
       </c>
       <c r="M14">
-        <v>1.014471828859619</v>
+        <v>1.0196274851753</v>
       </c>
       <c r="N14">
-        <v>0.9976674242169098</v>
+        <v>1.005316484749604</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.021313354601119</v>
+        <v>1.025388373262561</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.013251074250557</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.017916713225855</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.013726899141695</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9610075335108647</v>
+        <v>0.968114158035518</v>
       </c>
       <c r="D15">
-        <v>0.9885693756583757</v>
+        <v>0.9950853307635265</v>
       </c>
       <c r="E15">
-        <v>0.9727589941794887</v>
+        <v>0.979363973781138</v>
       </c>
       <c r="F15">
-        <v>1.000238243623426</v>
+        <v>1.005343377060235</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="J15">
-        <v>0.9919359473563943</v>
+        <v>0.998716798922998</v>
       </c>
       <c r="K15">
-        <v>1.003636978244204</v>
+        <v>1.010028082772577</v>
       </c>
       <c r="L15">
-        <v>0.9881386912767182</v>
+        <v>0.9946116793696455</v>
       </c>
       <c r="M15">
-        <v>1.015083765789845</v>
+        <v>1.020093852245068</v>
       </c>
       <c r="N15">
-        <v>0.9979909858377134</v>
+        <v>1.005454373134256</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.021835045903063</v>
+        <v>1.025794901680875</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.013717456722927</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.018252818500438</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.013873514233365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9652598259294143</v>
+        <v>0.9716288098942043</v>
       </c>
       <c r="D16">
-        <v>0.9917336167746991</v>
+        <v>0.9975533513536365</v>
       </c>
       <c r="E16">
-        <v>0.9762668503807693</v>
+        <v>0.9821910213768802</v>
       </c>
       <c r="F16">
-        <v>1.003123996440006</v>
+        <v>1.00768681095602</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="J16">
-        <v>0.9948415057533294</v>
+        <v>1.000934556395343</v>
       </c>
       <c r="K16">
-        <v>1.00621662280387</v>
+        <v>1.011930113656366</v>
       </c>
       <c r="L16">
-        <v>0.991040273702525</v>
+        <v>0.9968517952400648</v>
       </c>
       <c r="M16">
-        <v>1.017400561687789</v>
+        <v>1.021882376763183</v>
       </c>
       <c r="N16">
-        <v>0.9991537228997849</v>
+        <v>1.005912389488332</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.023626998233623</v>
+        <v>1.027169427067647</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.015544699217384</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.01960119451222</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.014377813743977</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9674306666886455</v>
+        <v>0.973515741544431</v>
       </c>
       <c r="D17">
-        <v>0.9932696765119604</v>
+        <v>0.9988106251223874</v>
       </c>
       <c r="E17">
-        <v>0.9779935874868076</v>
+        <v>0.9836636487705297</v>
       </c>
       <c r="F17">
-        <v>1.004456539619825</v>
+        <v>1.00880526962091</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="J17">
-        <v>0.9962006476166928</v>
+        <v>1.0020311422218</v>
       </c>
       <c r="K17">
-        <v>1.007396750817375</v>
+        <v>1.012839540575777</v>
       </c>
       <c r="L17">
-        <v>0.9923987938956452</v>
+        <v>0.9979643075472667</v>
       </c>
       <c r="M17">
-        <v>1.018386878168515</v>
+        <v>1.022660652111503</v>
       </c>
       <c r="N17">
-        <v>0.9996253344370702</v>
+        <v>1.006104817649497</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.024275876000865</v>
+        <v>1.027654213613348</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.016381787220434</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.020247101934743</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.014573979639964</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9679745514164441</v>
+        <v>0.9741230881657279</v>
       </c>
       <c r="D18">
-        <v>0.9934913299968475</v>
+        <v>0.99907546507805</v>
       </c>
       <c r="E18">
-        <v>0.9783059319542212</v>
+        <v>0.984048326728326</v>
       </c>
       <c r="F18">
-        <v>1.004499420068684</v>
+        <v>1.008887369173088</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="J18">
-        <v>0.996304531130992</v>
+        <v>1.002200643283154</v>
       </c>
       <c r="K18">
-        <v>1.007423365366546</v>
+        <v>1.012910176304719</v>
       </c>
       <c r="L18">
-        <v>0.9925099438426502</v>
+        <v>0.9981482074246263</v>
       </c>
       <c r="M18">
-        <v>1.018240937018672</v>
+        <v>1.022554438372877</v>
       </c>
       <c r="N18">
-        <v>0.9995223897586716</v>
+        <v>1.006023827007868</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.023919258849028</v>
+        <v>1.027329729208736</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.016388651676276</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.020284002121276</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.014496253167285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9671657407569431</v>
+        <v>0.9736413831757582</v>
       </c>
       <c r="D19">
-        <v>0.9926311169593824</v>
+        <v>0.9985072817103857</v>
       </c>
       <c r="E19">
-        <v>0.977457504601405</v>
+        <v>0.9835177980411726</v>
       </c>
       <c r="F19">
-        <v>1.003450379487455</v>
+        <v>1.008073089774616</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="J19">
-        <v>0.9953869968458854</v>
+        <v>1.001597853093087</v>
       </c>
       <c r="K19">
-        <v>1.006513037151078</v>
+        <v>1.012287149181182</v>
       </c>
       <c r="L19">
-        <v>0.9916103339384716</v>
+        <v>0.997561124760068</v>
       </c>
       <c r="M19">
-        <v>1.017145594271444</v>
+        <v>1.021690107375758</v>
       </c>
       <c r="N19">
-        <v>0.9989737585255718</v>
+        <v>1.005713179446412</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.022721892091354</v>
+        <v>1.026316223281193</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.015751563131159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.019850666201714</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.014204589313864</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9624438502686103</v>
+        <v>0.9700226872625096</v>
       </c>
       <c r="D20">
-        <v>0.9886343638018931</v>
+        <v>0.9955308984963533</v>
       </c>
       <c r="E20">
-        <v>0.9732409125548106</v>
+        <v>0.9803426100171657</v>
       </c>
       <c r="F20">
-        <v>0.9993077449718389</v>
+        <v>1.004739308616707</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="J20">
-        <v>0.9915034096765065</v>
+        <v>0.9987601795345941</v>
       </c>
       <c r="K20">
-        <v>1.002880052326546</v>
+        <v>1.009652789519412</v>
       </c>
       <c r="L20">
-        <v>0.9877711939124287</v>
+        <v>0.9947401478864337</v>
       </c>
       <c r="M20">
-        <v>1.013362777781316</v>
+        <v>1.018699331778596</v>
       </c>
       <c r="N20">
-        <v>0.9971187427335089</v>
+        <v>1.004717677787</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.019189676188196</v>
+        <v>1.023413098930558</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.01318683555269</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.01799245664873</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.013284065091187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9538252922184089</v>
+        <v>0.9631040082647944</v>
       </c>
       <c r="D21">
-        <v>0.9820777595930054</v>
+        <v>0.9905559791374422</v>
       </c>
       <c r="E21">
-        <v>0.9660101864397229</v>
+        <v>0.9746978372001185</v>
       </c>
       <c r="F21">
-        <v>0.993245799259035</v>
+        <v>0.9999200982184761</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="J21">
-        <v>0.9853889750616133</v>
+        <v>0.9942296429171312</v>
       </c>
       <c r="K21">
-        <v>0.9974068198194539</v>
+        <v>1.005718507842029</v>
       </c>
       <c r="L21">
-        <v>0.9816654455287064</v>
+        <v>0.9901749631414826</v>
       </c>
       <c r="M21">
-        <v>1.008356271910646</v>
+        <v>1.01490298452193</v>
       </c>
       <c r="N21">
-        <v>0.9945494771459407</v>
+        <v>1.003713106075903</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.015185359639536</v>
+        <v>1.02036681413018</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.009320203806982</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.015214362274754</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.012169815205335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9482761513658102</v>
+        <v>0.9586717300764478</v>
       </c>
       <c r="D22">
-        <v>0.9778801360247572</v>
+        <v>0.9873915260305888</v>
       </c>
       <c r="E22">
-        <v>0.9613702415191312</v>
+        <v>0.9710996172333826</v>
       </c>
       <c r="F22">
-        <v>0.9894034014283504</v>
+        <v>0.9968904996171757</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="J22">
-        <v>0.9814672473635122</v>
+        <v>0.9913394829155836</v>
       </c>
       <c r="K22">
-        <v>0.9939029072506756</v>
+        <v>1.003216966679723</v>
       </c>
       <c r="L22">
-        <v>0.9777478709557452</v>
+        <v>0.9872661912488349</v>
       </c>
       <c r="M22">
-        <v>1.005187742906495</v>
+        <v>1.012523809024477</v>
       </c>
       <c r="N22">
-        <v>0.9929034901870374</v>
+        <v>1.003071126198024</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.012677584261996</v>
+        <v>1.018483798997753</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.006828647030686</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.013430405205105</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.011464375839782</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9511866758683181</v>
+        <v>0.9609715659115128</v>
       </c>
       <c r="D23">
-        <v>0.980070124304005</v>
+        <v>0.9890182366049356</v>
       </c>
       <c r="E23">
-        <v>0.9637967562859622</v>
+        <v>0.9729539249945353</v>
       </c>
       <c r="F23">
-        <v>0.9914140264597778</v>
+        <v>0.9984576866855331</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="J23">
-        <v>0.9835119454291864</v>
+        <v>0.9928205777891341</v>
       </c>
       <c r="K23">
-        <v>0.9957247715313134</v>
+        <v>1.00449249135199</v>
       </c>
       <c r="L23">
-        <v>0.9797908508489608</v>
+        <v>0.9887551637139128</v>
       </c>
       <c r="M23">
-        <v>1.006840708494237</v>
+        <v>1.013746237628707</v>
       </c>
       <c r="N23">
-        <v>0.9937561448766981</v>
+        <v>1.003345359736729</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.013985847560561</v>
+        <v>1.019451299353495</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.008106876250371</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.01432141466605</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.011814387896493</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9623321734036078</v>
+        <v>0.9699587866060997</v>
       </c>
       <c r="D24">
-        <v>0.9884999808018184</v>
+        <v>0.9954389802781113</v>
       </c>
       <c r="E24">
-        <v>0.9731178622460118</v>
+        <v>0.9802659521489836</v>
       </c>
       <c r="F24">
-        <v>0.9991568201328392</v>
+        <v>1.004622800704825</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="J24">
-        <v>0.9913614956398615</v>
+        <v>0.9986643870105607</v>
       </c>
       <c r="K24">
-        <v>1.002732104987393</v>
+        <v>1.009546668786012</v>
       </c>
       <c r="L24">
-        <v>0.987634098067389</v>
+        <v>0.9946487151704508</v>
       </c>
       <c r="M24">
-        <v>1.013198759152154</v>
+        <v>1.018569218234201</v>
       </c>
       <c r="N24">
-        <v>0.9970330336294568</v>
+        <v>1.004665348117217</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.019017993550211</v>
+        <v>1.023268470152428</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.013053957880399</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.017886617918504</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.013233511704932</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9745301622792731</v>
+        <v>0.9802254007670917</v>
       </c>
       <c r="D25">
-        <v>0.9977730840507721</v>
+        <v>1.002860648936972</v>
       </c>
       <c r="E25">
-        <v>0.983350746024349</v>
+        <v>0.9887250231053964</v>
       </c>
       <c r="F25">
-        <v>1.007702066259908</v>
+        <v>1.011725289258895</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="J25">
-        <v>0.9999461783703223</v>
+        <v>1.005437090495165</v>
       </c>
       <c r="K25">
-        <v>1.010406068666572</v>
+        <v>1.015414718735968</v>
       </c>
       <c r="L25">
-        <v>0.996213138349932</v>
+        <v>1.001500927071294</v>
       </c>
       <c r="M25">
-        <v>1.020181982691092</v>
+        <v>1.024144271726316</v>
       </c>
       <c r="N25">
-        <v>1.00060133031235</v>
+        <v>1.006794021442496</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.024544895384753</v>
+        <v>1.02768084577238</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.018477186259964</v>
+        <v>1.022032512309</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.014919294616492</v>
       </c>
     </row>
   </sheetData>
